--- a/excel/files_10_data_analysis_solutions/exercise01/menu.xlsx
+++ b/excel/files_10_data_analysis_solutions/exercise01/menu.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hanzenl-my.sharepoint.com/personal/j_hageman_pl_hanze_nl/Documents/web_pages/data_analysis2/data_analysis/excel/files_10_data_analysis_solutions/exercise01/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hjur\OneDrive - Hanzehogeschool Groningen\web_pages\data_analysis2\data_analysis\excel\files_10_data_analysis_solutions\exercise01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="11_F25DC773A252ABDACC104804C9D87D685ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46A6DEF0-CAFB-4070-8EA9-5B4670C40D4A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7ED34A-038F-48A3-B89F-0B5826EC06B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="416">
   <si>
     <t>Category</t>
   </si>
@@ -1284,6 +1284,18 @@
   </si>
   <si>
     <t>Median Calories from fat</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>High energetic</t>
+  </si>
+  <si>
+    <t>300 &gt;  calories &gt; 600</t>
+  </si>
+  <si>
+    <t>Fluid Ounce</t>
   </si>
 </sst>
 </file>
@@ -1436,6 +1448,17 @@
     <tableColumn id="1" xr3:uid="{FF78DE00-B33B-409A-80A2-405F2A54825B}" name="Calculation"/>
     <tableColumn id="2" xr3:uid="{7E7D11BD-99BB-4CFF-8E07-C83C9A29D8BE}" name="Value" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{E07A05AB-9397-4557-AF3A-EB7163D0917D}" name="Unit"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{48FDF8C4-AC18-43C5-A314-808F9E14D531}" name="Table2" displayName="Table2" ref="A13:B16" totalsRowShown="0">
+  <autoFilter ref="A13:B16" xr:uid="{48FDF8C4-AC18-43C5-A314-808F9E14D531}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{30B4AC6B-4E8A-49BD-87C7-F356D2D17C24}" name="Count"/>
+    <tableColumn id="2" xr3:uid="{EA7AE0DA-66ED-4368-959E-F4CCBD5984C9}" name="Value"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1706,7 +1729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E285663B-15D6-4E70-A204-8DD9269A72BB}">
   <dimension ref="A1:X261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="A130" workbookViewId="0">
       <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
@@ -21063,10 +21086,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21183,10 +21206,46 @@
         <v>406</v>
       </c>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>412</v>
+      </c>
+      <c r="B13" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>413</v>
+      </c>
+      <c r="B14">
+        <f>COUNTIF(menu[Calories],"&gt;600")</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>414</v>
+      </c>
+      <c r="B15">
+        <f>COUNTIFS(menu[Calories],"&gt;300",menu[Calories],"&lt;600")</f>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>415</v>
+      </c>
+      <c r="B16">
+        <f>COUNTIF(menu[Serving Size],"*fl oz cup*")</f>
+        <v>138</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/excel/files_10_data_analysis_solutions/exercise01/menu.xlsx
+++ b/excel/files_10_data_analysis_solutions/exercise01/menu.xlsx
@@ -1,25 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hjur\OneDrive - Hanzehogeschool Groningen\web_pages\data_analysis2\data_analysis\excel\files_10_data_analysis_solutions\exercise01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hanzenl-my.sharepoint.com/personal/j_hageman_pl_hanze_nl/Documents/web_pages/data_analysis2/data_analysis/excel/files_10_data_analysis_solutions/exercise01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7ED34A-038F-48A3-B89F-0B5826EC06B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{BF7ED34A-038F-48A3-B89F-0B5826EC06B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54F12845-897A-45B1-8077-7BE3C9343052}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
     <sheet name="analysis" sheetId="1" r:id="rId2"/>
+    <sheet name="pivot" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">data!$A$1:$X$261</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="4" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="421">
   <si>
     <t>Category</t>
   </si>
@@ -1296,12 +1300,30 @@
   </si>
   <si>
     <t>Fluid Ounce</t>
+  </si>
+  <si>
+    <t>Average of Total Fat (% Daily Value)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Average of Saturated Fat (% Daily Value)</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Average of Cholesterol (% Daily Value)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1331,14 +1353,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
@@ -1362,6 +1395,7137 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Hageman J, Jurre" refreshedDate="45281.496457060188" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="260" xr:uid="{591E6400-660F-4E5C-830F-BDF695580079}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="menu"/>
+  </cacheSource>
+  <cacheFields count="24">
+    <cacheField name="Category" numFmtId="0">
+      <sharedItems count="9">
+        <s v="Breakfast"/>
+        <s v="Beef &amp; Pork"/>
+        <s v="Chicken &amp; Fish"/>
+        <s v="Coffee &amp; Tea"/>
+        <s v="Salads"/>
+        <s v="Snacks &amp; Sides"/>
+        <s v="Desserts"/>
+        <s v="Beverages"/>
+        <s v="Smoothies &amp; Shakes"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Item" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Serving Size" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Calories" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1880"/>
+    </cacheField>
+    <cacheField name="Calories from Fat" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1060"/>
+    </cacheField>
+    <cacheField name="Total Fat" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="118"/>
+    </cacheField>
+    <cacheField name="Total Fat (% Daily Value)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="182" count="63">
+        <n v="87"/>
+        <n v="93"/>
+        <n v="12"/>
+        <n v="18"/>
+        <n v="26"/>
+        <n v="32"/>
+        <n v="80"/>
+        <n v="70"/>
+        <n v="77"/>
+        <n v="49"/>
+        <n v="73"/>
+        <n v="53"/>
+        <n v="34"/>
+        <n v="35"/>
+        <n v="36"/>
+        <n v="182"/>
+        <n v="50"/>
+        <n v="42"/>
+        <n v="41"/>
+        <n v="40"/>
+        <n v="45"/>
+        <n v="57"/>
+        <n v="51"/>
+        <n v="48"/>
+        <n v="47"/>
+        <n v="43"/>
+        <n v="33"/>
+        <n v="31"/>
+        <n v="28"/>
+        <n v="27"/>
+        <n v="23"/>
+        <n v="15"/>
+        <n v="13"/>
+        <n v="25"/>
+        <n v="62"/>
+        <n v="38"/>
+        <n v="11"/>
+        <n v="29"/>
+        <n v="66"/>
+        <n v="39"/>
+        <n v="37"/>
+        <n v="30"/>
+        <n v="63"/>
+        <n v="59"/>
+        <n v="20"/>
+        <n v="24"/>
+        <n v="91"/>
+        <n v="6"/>
+        <n v="7"/>
+        <n v="8"/>
+        <n v="9"/>
+        <n v="14"/>
+        <n v="0"/>
+        <n v="19"/>
+        <n v="3"/>
+        <n v="17"/>
+        <n v="21"/>
+        <n v="16"/>
+        <n v="2"/>
+        <n v="10"/>
+        <n v="5"/>
+        <n v="4"/>
+        <n v="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Saturated Fat" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="45" count="24">
+        <n v="19"/>
+        <n v="20"/>
+        <n v="3"/>
+        <n v="5"/>
+        <n v="8"/>
+        <n v="10"/>
+        <n v="18"/>
+        <n v="16"/>
+        <n v="17"/>
+        <n v="13"/>
+        <n v="9"/>
+        <n v="14"/>
+        <n v="12"/>
+        <n v="11"/>
+        <n v="15"/>
+        <n v="6"/>
+        <n v="35"/>
+        <n v="45"/>
+        <n v="7"/>
+        <n v="2"/>
+        <n v="25"/>
+        <n v="4"/>
+        <n v="0"/>
+        <n v="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Saturated Fat (% Daily Value)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="102"/>
+    </cacheField>
+    <cacheField name="Trans Fat" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="25"/>
+    </cacheField>
+    <cacheField name="Cholesterol" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="575"/>
+    </cacheField>
+    <cacheField name="Cholesterol (% Daily Value)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="192"/>
+    </cacheField>
+    <cacheField name="Sodium" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="3600"/>
+    </cacheField>
+    <cacheField name="Sodium (% Daily Value)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="150"/>
+    </cacheField>
+    <cacheField name="Carbohydrates" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="141"/>
+    </cacheField>
+    <cacheField name="Carbohydrates (% Daily Value)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="47"/>
+    </cacheField>
+    <cacheField name="Dietary Fiber" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="7"/>
+    </cacheField>
+    <cacheField name="Dietary Fiber (% Daily Value)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="28"/>
+    </cacheField>
+    <cacheField name="Sugars" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="128"/>
+    </cacheField>
+    <cacheField name="Protein" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="87"/>
+    </cacheField>
+    <cacheField name="Vitamin A (% Daily Value)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="170"/>
+    </cacheField>
+    <cacheField name="Vitamin C (% Daily Value)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="240"/>
+    </cacheField>
+    <cacheField name="Calcium (% Daily Value)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="70"/>
+    </cacheField>
+    <cacheField name="Iron (% Daily Value)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="40"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="260">
+  <r>
+    <x v="0"/>
+    <s v="Big Breakfast with Hotcakes (Regular Biscuit)"/>
+    <s v="14.8 oz (420 g)"/>
+    <n v="1090"/>
+    <n v="510"/>
+    <n v="56"/>
+    <x v="0"/>
+    <n v="19"/>
+    <n v="96"/>
+    <n v="0"/>
+    <n v="575"/>
+    <n v="192"/>
+    <n v="2150"/>
+    <n v="90"/>
+    <n v="111"/>
+    <n v="37"/>
+    <n v="6"/>
+    <n v="23"/>
+    <n v="17"/>
+    <n v="36"/>
+    <n v="15"/>
+    <n v="2"/>
+    <n v="25"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Big Breakfast with Hotcakes (Large Biscuit)"/>
+    <s v="15.3 oz (434 g)"/>
+    <n v="1150"/>
+    <n v="540"/>
+    <n v="60"/>
+    <x v="1"/>
+    <n v="20"/>
+    <n v="100"/>
+    <n v="0"/>
+    <n v="575"/>
+    <n v="192"/>
+    <n v="2260"/>
+    <n v="94"/>
+    <n v="116"/>
+    <n v="39"/>
+    <n v="7"/>
+    <n v="28"/>
+    <n v="17"/>
+    <n v="36"/>
+    <n v="15"/>
+    <n v="2"/>
+    <n v="30"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Hamburger"/>
+    <s v="3.5 oz (98 g)"/>
+    <n v="240"/>
+    <n v="70"/>
+    <n v="8"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="15"/>
+    <n v="0"/>
+    <n v="30"/>
+    <n v="10"/>
+    <n v="480"/>
+    <n v="20"/>
+    <n v="32"/>
+    <n v="11"/>
+    <n v="1"/>
+    <n v="6"/>
+    <n v="6"/>
+    <n v="12"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="10"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Cheeseburger"/>
+    <s v="4 oz (113 g)"/>
+    <n v="290"/>
+    <n v="100"/>
+    <n v="11"/>
+    <x v="3"/>
+    <n v="5"/>
+    <n v="27"/>
+    <n v="5"/>
+    <n v="45"/>
+    <n v="15"/>
+    <n v="680"/>
+    <n v="28"/>
+    <n v="33"/>
+    <n v="11"/>
+    <n v="2"/>
+    <n v="7"/>
+    <n v="7"/>
+    <n v="15"/>
+    <n v="6"/>
+    <n v="2"/>
+    <n v="20"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="McDouble"/>
+    <s v="5.2 oz (147 g)"/>
+    <n v="380"/>
+    <n v="150"/>
+    <n v="17"/>
+    <x v="4"/>
+    <n v="8"/>
+    <n v="40"/>
+    <n v="1"/>
+    <n v="75"/>
+    <n v="25"/>
+    <n v="840"/>
+    <n v="35"/>
+    <n v="34"/>
+    <n v="11"/>
+    <n v="2"/>
+    <n v="7"/>
+    <n v="7"/>
+    <n v="22"/>
+    <n v="6"/>
+    <n v="2"/>
+    <n v="20"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Double Cheeseburger"/>
+    <s v="5.7 oz (161 g)"/>
+    <n v="430"/>
+    <n v="190"/>
+    <n v="21"/>
+    <x v="5"/>
+    <n v="10"/>
+    <n v="52"/>
+    <n v="1"/>
+    <n v="90"/>
+    <n v="30"/>
+    <n v="1040"/>
+    <n v="43"/>
+    <n v="35"/>
+    <n v="12"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="7"/>
+    <n v="24"/>
+    <n v="10"/>
+    <n v="2"/>
+    <n v="30"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Big Breakfast (Large Biscuit)"/>
+    <s v="10 oz (283 g)"/>
+    <n v="800"/>
+    <n v="470"/>
+    <n v="52"/>
+    <x v="6"/>
+    <n v="18"/>
+    <n v="90"/>
+    <n v="0"/>
+    <n v="555"/>
+    <n v="185"/>
+    <n v="1680"/>
+    <n v="70"/>
+    <n v="56"/>
+    <n v="19"/>
+    <n v="4"/>
+    <n v="17"/>
+    <n v="3"/>
+    <n v="28"/>
+    <n v="15"/>
+    <n v="2"/>
+    <n v="15"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Big Breakfast with Hotcakes and Egg Whites (Regular Biscuit)"/>
+    <s v="14.9 oz (423 g)"/>
+    <n v="990"/>
+    <n v="410"/>
+    <n v="46"/>
+    <x v="7"/>
+    <n v="16"/>
+    <n v="78"/>
+    <n v="0"/>
+    <n v="55"/>
+    <n v="19"/>
+    <n v="2170"/>
+    <n v="91"/>
+    <n v="110"/>
+    <n v="37"/>
+    <n v="6"/>
+    <n v="23"/>
+    <n v="17"/>
+    <n v="35"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="25"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Big Breakfast with Hotcakes and Egg Whites (Large Biscuit)"/>
+    <s v="15.4 oz (437 g)"/>
+    <n v="1050"/>
+    <n v="450"/>
+    <n v="50"/>
+    <x v="8"/>
+    <n v="16"/>
+    <n v="81"/>
+    <n v="0"/>
+    <n v="55"/>
+    <n v="19"/>
+    <n v="2290"/>
+    <n v="95"/>
+    <n v="115"/>
+    <n v="38"/>
+    <n v="7"/>
+    <n v="28"/>
+    <n v="18"/>
+    <n v="35"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="25"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Steak &amp; Egg Biscuit (Regular Biscuit)"/>
+    <s v="7.1 oz (201 g)"/>
+    <n v="540"/>
+    <n v="290"/>
+    <n v="32"/>
+    <x v="9"/>
+    <n v="16"/>
+    <n v="78"/>
+    <n v="1"/>
+    <n v="280"/>
+    <n v="93"/>
+    <n v="1470"/>
+    <n v="61"/>
+    <n v="38"/>
+    <n v="13"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="3"/>
+    <n v="25"/>
+    <n v="10"/>
+    <n v="2"/>
+    <n v="20"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Big Breakfast (Regular Biscuit)"/>
+    <s v="9.5 oz (269 g)"/>
+    <n v="740"/>
+    <n v="430"/>
+    <n v="48"/>
+    <x v="10"/>
+    <n v="17"/>
+    <n v="87"/>
+    <n v="0"/>
+    <n v="555"/>
+    <n v="185"/>
+    <n v="1560"/>
+    <n v="65"/>
+    <n v="51"/>
+    <n v="17"/>
+    <n v="3"/>
+    <n v="12"/>
+    <n v="3"/>
+    <n v="28"/>
+    <n v="15"/>
+    <n v="2"/>
+    <n v="15"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Steak, Egg &amp; Cheese Bagel"/>
+    <s v="8.5 oz (241 g)"/>
+    <n v="670"/>
+    <n v="310"/>
+    <n v="35"/>
+    <x v="11"/>
+    <n v="13"/>
+    <n v="63"/>
+    <n v="15"/>
+    <n v="295"/>
+    <n v="99"/>
+    <n v="1510"/>
+    <n v="63"/>
+    <n v="56"/>
+    <n v="19"/>
+    <n v="3"/>
+    <n v="12"/>
+    <n v="7"/>
+    <n v="33"/>
+    <n v="20"/>
+    <n v="4"/>
+    <n v="25"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Bacon McDouble"/>
+    <s v="5.7 oz (161 g)"/>
+    <n v="440"/>
+    <n v="200"/>
+    <n v="22"/>
+    <x v="12"/>
+    <n v="10"/>
+    <n v="49"/>
+    <n v="1"/>
+    <n v="90"/>
+    <n v="30"/>
+    <n v="1110"/>
+    <n v="46"/>
+    <n v="35"/>
+    <n v="12"/>
+    <n v="2"/>
+    <n v="7"/>
+    <n v="7"/>
+    <n v="27"/>
+    <n v="6"/>
+    <n v="10"/>
+    <n v="20"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Daily Double"/>
+    <s v="6.7 oz (190 g)"/>
+    <n v="430"/>
+    <n v="200"/>
+    <n v="22"/>
+    <x v="13"/>
+    <n v="9"/>
+    <n v="44"/>
+    <n v="1"/>
+    <n v="80"/>
+    <n v="27"/>
+    <n v="760"/>
+    <n v="32"/>
+    <n v="34"/>
+    <n v="11"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="7"/>
+    <n v="22"/>
+    <n v="8"/>
+    <n v="8"/>
+    <n v="20"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Jalapeño Double"/>
+    <s v="5.6 oz (159 g)"/>
+    <n v="430"/>
+    <n v="210"/>
+    <n v="23"/>
+    <x v="14"/>
+    <n v="9"/>
+    <n v="44"/>
+    <n v="1"/>
+    <n v="80"/>
+    <n v="27"/>
+    <n v="1030"/>
+    <n v="43"/>
+    <n v="35"/>
+    <n v="12"/>
+    <n v="2"/>
+    <n v="7"/>
+    <n v="6"/>
+    <n v="22"/>
+    <n v="6"/>
+    <n v="8"/>
+    <n v="20"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Chicken McNuggets (40 piece)"/>
+    <s v="22.8 oz (646 g)"/>
+    <n v="1880"/>
+    <n v="1060"/>
+    <n v="118"/>
+    <x v="15"/>
+    <n v="20"/>
+    <n v="101"/>
+    <n v="1"/>
+    <n v="265"/>
+    <n v="89"/>
+    <n v="3600"/>
+    <n v="150"/>
+    <n v="118"/>
+    <n v="39"/>
+    <n v="6"/>
+    <n v="24"/>
+    <n v="1"/>
+    <n v="87"/>
+    <n v="0"/>
+    <n v="15"/>
+    <n v="8"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Sausage Biscuit with Egg (Regular Biscuit)"/>
+    <s v="5.7 oz (163 g)"/>
+    <n v="510"/>
+    <n v="290"/>
+    <n v="33"/>
+    <x v="16"/>
+    <n v="14"/>
+    <n v="71"/>
+    <n v="0"/>
+    <n v="250"/>
+    <n v="83"/>
+    <n v="1170"/>
+    <n v="49"/>
+    <n v="36"/>
+    <n v="12"/>
+    <n v="2"/>
+    <n v="6"/>
+    <n v="2"/>
+    <n v="18"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Big Mac"/>
+    <s v="7.4 oz (211 g)"/>
+    <n v="530"/>
+    <n v="240"/>
+    <n v="27"/>
+    <x v="17"/>
+    <n v="10"/>
+    <n v="48"/>
+    <n v="1"/>
+    <n v="85"/>
+    <n v="28"/>
+    <n v="960"/>
+    <n v="40"/>
+    <n v="47"/>
+    <n v="16"/>
+    <n v="3"/>
+    <n v="13"/>
+    <n v="9"/>
+    <n v="24"/>
+    <n v="6"/>
+    <n v="2"/>
+    <n v="25"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Quarter Pounder with Cheese"/>
+    <s v="7.1 oz (202 g)"/>
+    <n v="520"/>
+    <n v="240"/>
+    <n v="26"/>
+    <x v="18"/>
+    <n v="12"/>
+    <n v="61"/>
+    <n v="15"/>
+    <n v="95"/>
+    <n v="31"/>
+    <n v="1100"/>
+    <n v="46"/>
+    <n v="41"/>
+    <n v="14"/>
+    <n v="3"/>
+    <n v="11"/>
+    <n v="10"/>
+    <n v="30"/>
+    <n v="10"/>
+    <n v="2"/>
+    <n v="30"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="McRib"/>
+    <s v="7.3 oz (208 g)"/>
+    <n v="500"/>
+    <n v="240"/>
+    <n v="26"/>
+    <x v="19"/>
+    <n v="10"/>
+    <n v="48"/>
+    <n v="0"/>
+    <n v="70"/>
+    <n v="23"/>
+    <n v="980"/>
+    <n v="41"/>
+    <n v="44"/>
+    <n v="15"/>
+    <n v="3"/>
+    <n v="10"/>
+    <n v="11"/>
+    <n v="22"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="15"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Quarter Pounder Deluxe"/>
+    <s v="8.6 oz (244 g)"/>
+    <n v="540"/>
+    <n v="250"/>
+    <n v="27"/>
+    <x v="17"/>
+    <n v="11"/>
+    <n v="54"/>
+    <n v="15"/>
+    <n v="85"/>
+    <n v="28"/>
+    <n v="960"/>
+    <n v="40"/>
+    <n v="45"/>
+    <n v="15"/>
+    <n v="3"/>
+    <n v="13"/>
+    <n v="9"/>
+    <n v="29"/>
+    <n v="10"/>
+    <n v="8"/>
+    <n v="25"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Quarter Pounder with Bacon &amp; Cheese"/>
+    <s v="8 oz (227 g)"/>
+    <n v="600"/>
+    <n v="260"/>
+    <n v="29"/>
+    <x v="20"/>
+    <n v="13"/>
+    <n v="63"/>
+    <n v="15"/>
+    <n v="105"/>
+    <n v="34"/>
+    <n v="1440"/>
+    <n v="60"/>
+    <n v="48"/>
+    <n v="16"/>
+    <n v="3"/>
+    <n v="12"/>
+    <n v="12"/>
+    <n v="37"/>
+    <n v="6"/>
+    <n v="15"/>
+    <n v="25"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Sausage Biscuit with Egg (Large Biscuit)"/>
+    <s v="6.2 oz (177 g)"/>
+    <n v="570"/>
+    <n v="330"/>
+    <n v="37"/>
+    <x v="21"/>
+    <n v="15"/>
+    <n v="74"/>
+    <n v="0"/>
+    <n v="250"/>
+    <n v="83"/>
+    <n v="1280"/>
+    <n v="53"/>
+    <n v="42"/>
+    <n v="14"/>
+    <n v="3"/>
+    <n v="11"/>
+    <n v="3"/>
+    <n v="18"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Premium Crispy Chicken Club Sandwich"/>
+    <s v="8.8 oz (249 g)"/>
+    <n v="670"/>
+    <n v="300"/>
+    <n v="33"/>
+    <x v="22"/>
+    <n v="9"/>
+    <n v="44"/>
+    <n v="0"/>
+    <n v="85"/>
+    <n v="29"/>
+    <n v="1410"/>
+    <n v="59"/>
+    <n v="58"/>
+    <n v="19"/>
+    <n v="3"/>
+    <n v="14"/>
+    <n v="11"/>
+    <n v="36"/>
+    <n v="8"/>
+    <n v="20"/>
+    <n v="30"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Bacon, Egg &amp; Cheese Bagel"/>
+    <s v="6.9 oz (197 g)"/>
+    <n v="620"/>
+    <n v="280"/>
+    <n v="31"/>
+    <x v="23"/>
+    <n v="11"/>
+    <n v="56"/>
+    <n v="5"/>
+    <n v="275"/>
+    <n v="92"/>
+    <n v="1480"/>
+    <n v="62"/>
+    <n v="57"/>
+    <n v="19"/>
+    <n v="3"/>
+    <n v="11"/>
+    <n v="7"/>
+    <n v="30"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="20"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Premium McWrap Chicken &amp; Bacon (Crispy Chicken)"/>
+    <s v="11.1 oz (316 g)"/>
+    <n v="630"/>
+    <n v="280"/>
+    <n v="32"/>
+    <x v="9"/>
+    <n v="9"/>
+    <n v="45"/>
+    <n v="5"/>
+    <n v="80"/>
+    <n v="26"/>
+    <n v="1540"/>
+    <n v="64"/>
+    <n v="56"/>
+    <n v="19"/>
+    <n v="3"/>
+    <n v="13"/>
+    <n v="7"/>
+    <n v="32"/>
+    <n v="60"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Premium McWrap Chicken &amp; Ranch (Crispy Chicken)"/>
+    <s v="10.9 oz (310 g)"/>
+    <n v="610"/>
+    <n v="280"/>
+    <n v="31"/>
+    <x v="24"/>
+    <n v="8"/>
+    <n v="40"/>
+    <n v="5"/>
+    <n v="65"/>
+    <n v="21"/>
+    <n v="1340"/>
+    <n v="56"/>
+    <n v="56"/>
+    <n v="19"/>
+    <n v="3"/>
+    <n v="14"/>
+    <n v="8"/>
+    <n v="27"/>
+    <n v="60"/>
+    <n v="15"/>
+    <n v="20"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Bacon, Egg &amp; Cheese Biscuit (Large Biscuit)"/>
+    <s v="5.8 oz (164 g)"/>
+    <n v="520"/>
+    <n v="270"/>
+    <n v="30"/>
+    <x v="24"/>
+    <n v="14"/>
+    <n v="68"/>
+    <n v="0"/>
+    <n v="250"/>
+    <n v="83"/>
+    <n v="1410"/>
+    <n v="59"/>
+    <n v="43"/>
+    <n v="14"/>
+    <n v="3"/>
+    <n v="12"/>
+    <n v="4"/>
+    <n v="19"/>
+    <n v="15"/>
+    <n v="8"/>
+    <n v="20"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Premium Crispy Chicken Ranch BLT Sandwich"/>
+    <s v="8.1 oz (230 g)"/>
+    <n v="610"/>
+    <n v="250"/>
+    <n v="28"/>
+    <x v="25"/>
+    <n v="6"/>
+    <n v="31"/>
+    <n v="0"/>
+    <n v="70"/>
+    <n v="24"/>
+    <n v="1400"/>
+    <n v="58"/>
+    <n v="57"/>
+    <n v="19"/>
+    <n v="3"/>
+    <n v="13"/>
+    <n v="11"/>
+    <n v="32"/>
+    <n v="4"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Quarter Pounder with Bacon Habanero Ranch"/>
+    <s v="8.3 oz (235 g)"/>
+    <n v="610"/>
+    <n v="280"/>
+    <n v="31"/>
+    <x v="23"/>
+    <n v="13"/>
+    <n v="64"/>
+    <n v="15"/>
+    <n v="105"/>
+    <n v="35"/>
+    <n v="1180"/>
+    <n v="49"/>
+    <n v="46"/>
+    <n v="15"/>
+    <n v="3"/>
+    <n v="14"/>
+    <n v="10"/>
+    <n v="37"/>
+    <n v="8"/>
+    <n v="20"/>
+    <n v="25"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Premium Crispy Chicken Classic Sandwich"/>
+    <s v="7.5 oz (213 g)"/>
+    <n v="510"/>
+    <n v="200"/>
+    <n v="22"/>
+    <x v="26"/>
+    <n v="35"/>
+    <n v="18"/>
+    <n v="0"/>
+    <n v="45"/>
+    <n v="16"/>
+    <n v="990"/>
+    <n v="41"/>
+    <n v="55"/>
+    <n v="18"/>
+    <n v="3"/>
+    <n v="13"/>
+    <n v="10"/>
+    <n v="24"/>
+    <n v="4"/>
+    <n v="6"/>
+    <n v="15"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Premium McWrap Chicken Sweet Chili (Crispy Chicken)"/>
+    <s v="10.7 oz (304 g)"/>
+    <n v="540"/>
+    <n v="200"/>
+    <n v="23"/>
+    <x v="13"/>
+    <n v="45"/>
+    <n v="23"/>
+    <n v="0"/>
+    <n v="50"/>
+    <n v="16"/>
+    <n v="1260"/>
+    <n v="52"/>
+    <n v="61"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="13"/>
+    <n v="14"/>
+    <n v="23"/>
+    <n v="60"/>
+    <n v="15"/>
+    <n v="8"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Premium Grilled Chicken Club Sandwich"/>
+    <s v="8.3 oz (235 g)"/>
+    <n v="510"/>
+    <n v="180"/>
+    <n v="20"/>
+    <x v="27"/>
+    <n v="7"/>
+    <n v="36"/>
+    <n v="0"/>
+    <n v="105"/>
+    <n v="35"/>
+    <n v="1250"/>
+    <n v="52"/>
+    <n v="44"/>
+    <n v="15"/>
+    <n v="3"/>
+    <n v="13"/>
+    <n v="9"/>
+    <n v="40"/>
+    <n v="8"/>
+    <n v="20"/>
+    <n v="30"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Premium McWrap Chicken &amp; Bacon (Grilled Chicken)"/>
+    <s v="10.7 oz (302 g)"/>
+    <n v="480"/>
+    <n v="170"/>
+    <n v="19"/>
+    <x v="28"/>
+    <n v="7"/>
+    <n v="36"/>
+    <n v="0"/>
+    <n v="95"/>
+    <n v="32"/>
+    <n v="1370"/>
+    <n v="57"/>
+    <n v="42"/>
+    <n v="14"/>
+    <n v="3"/>
+    <n v="13"/>
+    <n v="6"/>
+    <n v="36"/>
+    <n v="60"/>
+    <n v="25"/>
+    <n v="20"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Premium McWrap Chicken &amp; Ranch (Grilled Chicken)"/>
+    <s v="10.5 oz (297 g)"/>
+    <n v="450"/>
+    <n v="160"/>
+    <n v="18"/>
+    <x v="29"/>
+    <n v="6"/>
+    <n v="31"/>
+    <n v="5"/>
+    <n v="80"/>
+    <n v="27"/>
+    <n v="1170"/>
+    <n v="49"/>
+    <n v="42"/>
+    <n v="14"/>
+    <n v="3"/>
+    <n v="14"/>
+    <n v="6"/>
+    <n v="30"/>
+    <n v="60"/>
+    <n v="15"/>
+    <n v="15"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Premium Grilled Chicken Ranch BLT Sandwich"/>
+    <s v="7.6 oz (217 g)"/>
+    <n v="450"/>
+    <n v="130"/>
+    <n v="15"/>
+    <x v="30"/>
+    <n v="45"/>
+    <n v="22"/>
+    <n v="0"/>
+    <n v="90"/>
+    <n v="30"/>
+    <n v="1230"/>
+    <n v="51"/>
+    <n v="43"/>
+    <n v="14"/>
+    <n v="3"/>
+    <n v="13"/>
+    <n v="9"/>
+    <n v="36"/>
+    <n v="4"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Premium McWrap Chicken Sweet Chili (Grilled Chicken)"/>
+    <s v="10.3 oz (291 g)"/>
+    <n v="380"/>
+    <n v="90"/>
+    <n v="10"/>
+    <x v="31"/>
+    <n v="3"/>
+    <n v="14"/>
+    <n v="0"/>
+    <n v="65"/>
+    <n v="22"/>
+    <n v="1090"/>
+    <n v="45"/>
+    <n v="47"/>
+    <n v="16"/>
+    <n v="3"/>
+    <n v="13"/>
+    <n v="12"/>
+    <n v="27"/>
+    <n v="60"/>
+    <n v="15"/>
+    <n v="8"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Premium Grilled Chicken Classic Sandwich"/>
+    <s v="7 oz (200 g)"/>
+    <n v="350"/>
+    <n v="80"/>
+    <n v="9"/>
+    <x v="32"/>
+    <n v="2"/>
+    <n v="9"/>
+    <n v="0"/>
+    <n v="65"/>
+    <n v="22"/>
+    <n v="820"/>
+    <n v="34"/>
+    <n v="42"/>
+    <n v="14"/>
+    <n v="3"/>
+    <n v="13"/>
+    <n v="8"/>
+    <n v="28"/>
+    <n v="4"/>
+    <n v="8"/>
+    <n v="15"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Steak &amp; Egg McMuffin"/>
+    <s v="6.5 oz (185 g)"/>
+    <n v="430"/>
+    <n v="210"/>
+    <n v="23"/>
+    <x v="14"/>
+    <n v="9"/>
+    <n v="46"/>
+    <n v="1"/>
+    <n v="300"/>
+    <n v="100"/>
+    <n v="960"/>
+    <n v="40"/>
+    <n v="31"/>
+    <n v="10"/>
+    <n v="4"/>
+    <n v="18"/>
+    <n v="3"/>
+    <n v="26"/>
+    <n v="15"/>
+    <n v="2"/>
+    <n v="30"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Premium McWrap Southwest Chicken (Crispy Chicken)"/>
+    <s v="11.1 oz (314 g)"/>
+    <n v="670"/>
+    <n v="300"/>
+    <n v="33"/>
+    <x v="22"/>
+    <n v="8"/>
+    <n v="40"/>
+    <n v="5"/>
+    <n v="60"/>
+    <n v="21"/>
+    <n v="1480"/>
+    <n v="62"/>
+    <n v="68"/>
+    <n v="23"/>
+    <n v="5"/>
+    <n v="19"/>
+    <n v="12"/>
+    <n v="27"/>
+    <n v="60"/>
+    <n v="15"/>
+    <n v="20"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Premium McWrap Southwest Chicken (Grilled Chicken)"/>
+    <s v="11.2 oz (318 g)"/>
+    <n v="520"/>
+    <n v="180"/>
+    <n v="20"/>
+    <x v="27"/>
+    <n v="6"/>
+    <n v="32"/>
+    <n v="0"/>
+    <n v="80"/>
+    <n v="27"/>
+    <n v="1320"/>
+    <n v="55"/>
+    <n v="55"/>
+    <n v="18"/>
+    <n v="5"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="31"/>
+    <n v="70"/>
+    <n v="15"/>
+    <n v="20"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Sausage Burrito"/>
+    <s v="3.9 oz (111 g)"/>
+    <n v="300"/>
+    <n v="150"/>
+    <n v="16"/>
+    <x v="33"/>
+    <n v="7"/>
+    <n v="33"/>
+    <n v="0"/>
+    <n v="115"/>
+    <n v="38"/>
+    <n v="790"/>
+    <n v="33"/>
+    <n v="26"/>
+    <n v="9"/>
+    <n v="1"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="12"/>
+    <n v="10"/>
+    <n v="2"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Bacon Clubhouse Burger"/>
+    <s v="9.5 oz (270 g)"/>
+    <n v="720"/>
+    <n v="360"/>
+    <n v="40"/>
+    <x v="34"/>
+    <n v="15"/>
+    <n v="75"/>
+    <n v="15"/>
+    <n v="115"/>
+    <n v="38"/>
+    <n v="1470"/>
+    <n v="61"/>
+    <n v="51"/>
+    <n v="17"/>
+    <n v="4"/>
+    <n v="14"/>
+    <n v="14"/>
+    <n v="39"/>
+    <n v="8"/>
+    <n v="25"/>
+    <n v="30"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Sausage, Egg &amp; Cheese McGriddles"/>
+    <s v="7.1 oz (201 g)"/>
+    <n v="550"/>
+    <n v="280"/>
+    <n v="31"/>
+    <x v="23"/>
+    <n v="12"/>
+    <n v="61"/>
+    <n v="0"/>
+    <n v="265"/>
+    <n v="89"/>
+    <n v="1320"/>
+    <n v="55"/>
+    <n v="48"/>
+    <n v="16"/>
+    <n v="2"/>
+    <n v="9"/>
+    <n v="15"/>
+    <n v="20"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="20"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Sausage Biscuit with Egg Whites (Regular Biscuit)"/>
+    <s v="5.9 oz (167 g)"/>
+    <n v="460"/>
+    <n v="250"/>
+    <n v="27"/>
+    <x v="17"/>
+    <n v="12"/>
+    <n v="62"/>
+    <n v="0"/>
+    <n v="35"/>
+    <n v="11"/>
+    <n v="1180"/>
+    <n v="49"/>
+    <n v="34"/>
+    <n v="11"/>
+    <n v="2"/>
+    <n v="6"/>
+    <n v="3"/>
+    <n v="18"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="8"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Sausage Biscuit (Regular Biscuit)"/>
+    <s v="4.1 oz (117 g)"/>
+    <n v="430"/>
+    <n v="240"/>
+    <n v="27"/>
+    <x v="17"/>
+    <n v="12"/>
+    <n v="62"/>
+    <n v="0"/>
+    <n v="30"/>
+    <n v="10"/>
+    <n v="1080"/>
+    <n v="45"/>
+    <n v="34"/>
+    <n v="11"/>
+    <n v="2"/>
+    <n v="6"/>
+    <n v="2"/>
+    <n v="11"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="6"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Bacon, Egg &amp; Cheese Biscuit (Regular Biscuit)"/>
+    <s v="5.3 oz (150 g)"/>
+    <n v="460"/>
+    <n v="230"/>
+    <n v="26"/>
+    <x v="19"/>
+    <n v="13"/>
+    <n v="65"/>
+    <n v="0"/>
+    <n v="250"/>
+    <n v="83"/>
+    <n v="1300"/>
+    <n v="54"/>
+    <n v="38"/>
+    <n v="13"/>
+    <n v="2"/>
+    <n v="7"/>
+    <n v="3"/>
+    <n v="19"/>
+    <n v="10"/>
+    <n v="8"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Bacon Cheddar McChicken"/>
+    <s v="6 oz (171 g)"/>
+    <n v="480"/>
+    <n v="220"/>
+    <n v="24"/>
+    <x v="35"/>
+    <n v="7"/>
+    <n v="35"/>
+    <n v="0"/>
+    <n v="65"/>
+    <n v="21"/>
+    <n v="1260"/>
+    <n v="53"/>
+    <n v="43"/>
+    <n v="14"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="6"/>
+    <n v="22"/>
+    <n v="4"/>
+    <n v="10"/>
+    <n v="20"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Iced Coffee with Sugar Free French Vanilla Syrup (Medium)"/>
+    <s v="22 fl oz cup"/>
+    <n v="120"/>
+    <n v="60"/>
+    <n v="7"/>
+    <x v="36"/>
+    <n v="45"/>
+    <n v="22"/>
+    <n v="0"/>
+    <n v="25"/>
+    <n v="9"/>
+    <n v="90"/>
+    <n v="4"/>
+    <n v="12"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Bacon, Egg &amp; Cheese McGriddles"/>
+    <s v="6.1 oz (174 g)"/>
+    <n v="460"/>
+    <n v="190"/>
+    <n v="21"/>
+    <x v="5"/>
+    <n v="9"/>
+    <n v="44"/>
+    <n v="0"/>
+    <n v="250"/>
+    <n v="84"/>
+    <n v="1250"/>
+    <n v="52"/>
+    <n v="48"/>
+    <n v="16"/>
+    <n v="2"/>
+    <n v="9"/>
+    <n v="15"/>
+    <n v="19"/>
+    <n v="10"/>
+    <n v="10"/>
+    <n v="20"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Bacon Buffalo Ranch McChicken"/>
+    <s v="5.7 oz (161 g)"/>
+    <n v="430"/>
+    <n v="190"/>
+    <n v="21"/>
+    <x v="5"/>
+    <n v="5"/>
+    <n v="25"/>
+    <n v="0"/>
+    <n v="50"/>
+    <n v="17"/>
+    <n v="1260"/>
+    <n v="53"/>
+    <n v="41"/>
+    <n v="14"/>
+    <n v="2"/>
+    <n v="7"/>
+    <n v="6"/>
+    <n v="20"/>
+    <n v="2"/>
+    <n v="10"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Southern Style Chicken Biscuit (Regular Biscuit)"/>
+    <s v="5 oz (143 g)"/>
+    <n v="410"/>
+    <n v="180"/>
+    <n v="20"/>
+    <x v="27"/>
+    <n v="8"/>
+    <n v="41"/>
+    <n v="0"/>
+    <n v="30"/>
+    <n v="10"/>
+    <n v="1180"/>
+    <n v="49"/>
+    <n v="41"/>
+    <n v="14"/>
+    <n v="2"/>
+    <n v="6"/>
+    <n v="3"/>
+    <n v="17"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="6"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Southern Style Crispy Chicken Sandwich"/>
+    <s v="5.6 oz (160 g)"/>
+    <n v="430"/>
+    <n v="170"/>
+    <n v="19"/>
+    <x v="37"/>
+    <n v="3"/>
+    <n v="15"/>
+    <n v="0"/>
+    <n v="45"/>
+    <n v="14"/>
+    <n v="910"/>
+    <n v="38"/>
+    <n v="43"/>
+    <n v="14"/>
+    <n v="2"/>
+    <n v="7"/>
+    <n v="7"/>
+    <n v="21"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Buffalo Ranch McChicken"/>
+    <s v="5.2 oz (148 g)"/>
+    <n v="360"/>
+    <n v="150"/>
+    <n v="16"/>
+    <x v="33"/>
+    <n v="3"/>
+    <n v="16"/>
+    <n v="0"/>
+    <n v="35"/>
+    <n v="11"/>
+    <n v="990"/>
+    <n v="41"/>
+    <n v="40"/>
+    <n v="13"/>
+    <n v="2"/>
+    <n v="7"/>
+    <n v="5"/>
+    <n v="14"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="McChicken"/>
+    <s v="5.1 oz (143 g)"/>
+    <n v="360"/>
+    <n v="140"/>
+    <n v="16"/>
+    <x v="33"/>
+    <n v="3"/>
+    <n v="15"/>
+    <n v="0"/>
+    <n v="35"/>
+    <n v="11"/>
+    <n v="800"/>
+    <n v="33"/>
+    <n v="40"/>
+    <n v="13"/>
+    <n v="2"/>
+    <n v="7"/>
+    <n v="5"/>
+    <n v="14"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="10"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Double Quarter Pounder with Cheese"/>
+    <s v="10 oz (283 g)"/>
+    <n v="750"/>
+    <n v="380"/>
+    <n v="43"/>
+    <x v="38"/>
+    <n v="19"/>
+    <n v="96"/>
+    <n v="25"/>
+    <n v="160"/>
+    <n v="53"/>
+    <n v="1280"/>
+    <n v="53"/>
+    <n v="42"/>
+    <n v="14"/>
+    <n v="3"/>
+    <n v="11"/>
+    <n v="10"/>
+    <n v="48"/>
+    <n v="10"/>
+    <n v="2"/>
+    <n v="30"/>
+    <n v="35"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Big Breakfast with Egg Whites (Regular Biscuit)"/>
+    <s v="9.6 oz (272 g)"/>
+    <n v="640"/>
+    <n v="330"/>
+    <n v="37"/>
+    <x v="21"/>
+    <n v="14"/>
+    <n v="69"/>
+    <n v="0"/>
+    <n v="35"/>
+    <n v="12"/>
+    <n v="1590"/>
+    <n v="66"/>
+    <n v="50"/>
+    <n v="17"/>
+    <n v="3"/>
+    <n v="12"/>
+    <n v="3"/>
+    <n v="26"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="10"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Sausage Biscuit (Large Biscuit)"/>
+    <s v="4.6 oz (131 g)"/>
+    <n v="480"/>
+    <n v="280"/>
+    <n v="31"/>
+    <x v="23"/>
+    <n v="13"/>
+    <n v="65"/>
+    <n v="0"/>
+    <n v="30"/>
+    <n v="10"/>
+    <n v="1190"/>
+    <n v="50"/>
+    <n v="39"/>
+    <n v="13"/>
+    <n v="3"/>
+    <n v="11"/>
+    <n v="3"/>
+    <n v="11"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="8"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Sausage Biscuit with Egg Whites (Large Biscuit)"/>
+    <s v="6.4 oz (181 g)"/>
+    <n v="520"/>
+    <n v="280"/>
+    <n v="32"/>
+    <x v="9"/>
+    <n v="13"/>
+    <n v="65"/>
+    <n v="0"/>
+    <n v="35"/>
+    <n v="11"/>
+    <n v="1290"/>
+    <n v="54"/>
+    <n v="40"/>
+    <n v="13"/>
+    <n v="3"/>
+    <n v="11"/>
+    <n v="3"/>
+    <n v="18"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="8"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Bacon, Egg &amp; Cheese Bagel with Egg Whites"/>
+    <s v="7.1 oz (201 g)"/>
+    <n v="570"/>
+    <n v="230"/>
+    <n v="25"/>
+    <x v="39"/>
+    <n v="9"/>
+    <n v="45"/>
+    <n v="5"/>
+    <n v="60"/>
+    <n v="20"/>
+    <n v="1480"/>
+    <n v="62"/>
+    <n v="55"/>
+    <n v="18"/>
+    <n v="3"/>
+    <n v="12"/>
+    <n v="8"/>
+    <n v="30"/>
+    <n v="10"/>
+    <n v="15"/>
+    <n v="20"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Bacon, Egg &amp; Cheese Biscuit with Egg Whites (Large Biscuit)"/>
+    <s v="5.9 oz (167 g)"/>
+    <n v="470"/>
+    <n v="220"/>
+    <n v="25"/>
+    <x v="35"/>
+    <n v="12"/>
+    <n v="59"/>
+    <n v="0"/>
+    <n v="35"/>
+    <n v="11"/>
+    <n v="1420"/>
+    <n v="59"/>
+    <n v="42"/>
+    <n v="14"/>
+    <n v="3"/>
+    <n v="12"/>
+    <n v="4"/>
+    <n v="20"/>
+    <n v="6"/>
+    <n v="8"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Southern Style Chicken Biscuit (Large Biscuit)"/>
+    <s v="5.5 oz (157 g)"/>
+    <n v="470"/>
+    <n v="220"/>
+    <n v="24"/>
+    <x v="40"/>
+    <n v="9"/>
+    <n v="45"/>
+    <n v="0"/>
+    <n v="30"/>
+    <n v="10"/>
+    <n v="1290"/>
+    <n v="54"/>
+    <n v="46"/>
+    <n v="15"/>
+    <n v="3"/>
+    <n v="11"/>
+    <n v="4"/>
+    <n v="17"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Hotcakes and Sausage"/>
+    <s v="6.8 oz (192 g)"/>
+    <n v="520"/>
+    <n v="210"/>
+    <n v="24"/>
+    <x v="40"/>
+    <n v="7"/>
+    <n v="36"/>
+    <n v="0"/>
+    <n v="50"/>
+    <n v="17"/>
+    <n v="930"/>
+    <n v="39"/>
+    <n v="61"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="10"/>
+    <n v="14"/>
+    <n v="15"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Cinnamon Melts"/>
+    <s v="4 oz (114 g)"/>
+    <n v="460"/>
+    <n v="170"/>
+    <n v="19"/>
+    <x v="41"/>
+    <n v="9"/>
+    <n v="43"/>
+    <n v="0"/>
+    <n v="15"/>
+    <n v="5"/>
+    <n v="370"/>
+    <n v="15"/>
+    <n v="66"/>
+    <n v="22"/>
+    <n v="3"/>
+    <n v="11"/>
+    <n v="32"/>
+    <n v="6"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="6"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Hotcakes"/>
+    <s v="5.3 oz (151 g)"/>
+    <n v="350"/>
+    <n v="80"/>
+    <n v="9"/>
+    <x v="32"/>
+    <n v="2"/>
+    <n v="9"/>
+    <n v="0"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="590"/>
+    <n v="24"/>
+    <n v="60"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="10"/>
+    <n v="14"/>
+    <n v="8"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Big Breakfast with Egg Whites (Large Biscuit)"/>
+    <s v="10.1 oz (286 g)"/>
+    <n v="690"/>
+    <n v="370"/>
+    <n v="41"/>
+    <x v="42"/>
+    <n v="14"/>
+    <n v="72"/>
+    <n v="0"/>
+    <n v="35"/>
+    <n v="12"/>
+    <n v="1700"/>
+    <n v="71"/>
+    <n v="55"/>
+    <n v="18"/>
+    <n v="4"/>
+    <n v="17"/>
+    <n v="4"/>
+    <n v="26"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="10"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Bacon Clubhouse Crispy Chicken Sandwich"/>
+    <s v="10 oz (284 g)"/>
+    <n v="750"/>
+    <n v="340"/>
+    <n v="38"/>
+    <x v="43"/>
+    <n v="10"/>
+    <n v="51"/>
+    <n v="5"/>
+    <n v="90"/>
+    <n v="31"/>
+    <n v="1720"/>
+    <n v="72"/>
+    <n v="65"/>
+    <n v="22"/>
+    <n v="4"/>
+    <n v="15"/>
+    <n v="16"/>
+    <n v="36"/>
+    <n v="8"/>
+    <n v="25"/>
+    <n v="30"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Sausage McMuffin with Egg"/>
+    <s v="5.7 oz (161 g)"/>
+    <n v="450"/>
+    <n v="250"/>
+    <n v="28"/>
+    <x v="25"/>
+    <n v="10"/>
+    <n v="52"/>
+    <n v="0"/>
+    <n v="285"/>
+    <n v="95"/>
+    <n v="860"/>
+    <n v="36"/>
+    <n v="30"/>
+    <n v="10"/>
+    <n v="4"/>
+    <n v="17"/>
+    <n v="2"/>
+    <n v="21"/>
+    <n v="15"/>
+    <n v="0"/>
+    <n v="30"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Bacon Clubhouse Grilled Chicken Sandwich"/>
+    <s v="9.5 oz (270 g)"/>
+    <n v="590"/>
+    <n v="230"/>
+    <n v="25"/>
+    <x v="39"/>
+    <n v="8"/>
+    <n v="42"/>
+    <n v="0"/>
+    <n v="110"/>
+    <n v="37"/>
+    <n v="1560"/>
+    <n v="65"/>
+    <n v="51"/>
+    <n v="17"/>
+    <n v="4"/>
+    <n v="15"/>
+    <n v="14"/>
+    <n v="40"/>
+    <n v="8"/>
+    <n v="30"/>
+    <n v="30"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Egg McMuffin"/>
+    <s v="4.8 oz (136 g)"/>
+    <n v="300"/>
+    <n v="120"/>
+    <n v="13"/>
+    <x v="44"/>
+    <n v="5"/>
+    <n v="25"/>
+    <n v="0"/>
+    <n v="260"/>
+    <n v="87"/>
+    <n v="750"/>
+    <n v="31"/>
+    <n v="31"/>
+    <n v="10"/>
+    <n v="4"/>
+    <n v="17"/>
+    <n v="3"/>
+    <n v="17"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="25"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Premium Southwest Salad with Crispy Chicken"/>
+    <s v="12.3 oz (348 g)"/>
+    <n v="450"/>
+    <n v="190"/>
+    <n v="22"/>
+    <x v="26"/>
+    <n v="45"/>
+    <n v="22"/>
+    <n v="0"/>
+    <n v="50"/>
+    <n v="17"/>
+    <n v="850"/>
+    <n v="35"/>
+    <n v="42"/>
+    <n v="14"/>
+    <n v="7"/>
+    <n v="28"/>
+    <n v="12"/>
+    <n v="23"/>
+    <n v="170"/>
+    <n v="30"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Premium Southwest Salad with Grilled Chicken"/>
+    <s v="11.8 oz (335 g)"/>
+    <n v="290"/>
+    <n v="80"/>
+    <n v="8"/>
+    <x v="32"/>
+    <n v="25"/>
+    <n v="13"/>
+    <n v="0"/>
+    <n v="70"/>
+    <n v="23"/>
+    <n v="680"/>
+    <n v="28"/>
+    <n v="28"/>
+    <n v="9"/>
+    <n v="7"/>
+    <n v="28"/>
+    <n v="10"/>
+    <n v="27"/>
+    <n v="170"/>
+    <n v="30"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="French Vanilla Iced Coffee (Medium)"/>
+    <s v="22 fl oz cup"/>
+    <n v="170"/>
+    <n v="60"/>
+    <n v="7"/>
+    <x v="36"/>
+    <n v="45"/>
+    <n v="22"/>
+    <n v="0"/>
+    <n v="25"/>
+    <n v="9"/>
+    <n v="55"/>
+    <n v="2"/>
+    <n v="27"/>
+    <n v="9"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="26"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Ranch Snack Wrap (Crispy Chicken)"/>
+    <s v="4.5 oz (128 g)"/>
+    <n v="360"/>
+    <n v="180"/>
+    <n v="20"/>
+    <x v="41"/>
+    <n v="5"/>
+    <n v="27"/>
+    <n v="0"/>
+    <n v="40"/>
+    <n v="13"/>
+    <n v="810"/>
+    <n v="34"/>
+    <n v="32"/>
+    <n v="11"/>
+    <n v="1"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="15"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="10"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Chipotle BBQ Snack Wrap (Crispy Chicken)"/>
+    <s v="4.6 oz (130 g)"/>
+    <n v="340"/>
+    <n v="130"/>
+    <n v="15"/>
+    <x v="30"/>
+    <n v="45"/>
+    <n v="22"/>
+    <n v="0"/>
+    <n v="30"/>
+    <n v="11"/>
+    <n v="780"/>
+    <n v="33"/>
+    <n v="37"/>
+    <n v="12"/>
+    <n v="1"/>
+    <n v="6"/>
+    <n v="8"/>
+    <n v="14"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="10"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Honey Mustard Snack Wrap (Crispy Chicken)"/>
+    <s v="4.3 oz (123 g)"/>
+    <n v="330"/>
+    <n v="130"/>
+    <n v="15"/>
+    <x v="30"/>
+    <n v="45"/>
+    <n v="22"/>
+    <n v="0"/>
+    <n v="35"/>
+    <n v="11"/>
+    <n v="730"/>
+    <n v="30"/>
+    <n v="34"/>
+    <n v="11"/>
+    <n v="1"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="14"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="10"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Ranch Snack Wrap (Grilled Chicken)"/>
+    <s v="4.3 oz (121 g)"/>
+    <n v="280"/>
+    <n v="120"/>
+    <n v="13"/>
+    <x v="44"/>
+    <n v="45"/>
+    <n v="22"/>
+    <n v="0"/>
+    <n v="45"/>
+    <n v="16"/>
+    <n v="720"/>
+    <n v="30"/>
+    <n v="25"/>
+    <n v="8"/>
+    <n v="1"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="16"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="10"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Chipotle BBQ Snack Wrap (Grilled Chicken)"/>
+    <s v="4.3 oz (123 g)"/>
+    <n v="260"/>
+    <n v="70"/>
+    <n v="8"/>
+    <x v="32"/>
+    <n v="35"/>
+    <n v="18"/>
+    <n v="0"/>
+    <n v="40"/>
+    <n v="14"/>
+    <n v="700"/>
+    <n v="29"/>
+    <n v="30"/>
+    <n v="10"/>
+    <n v="1"/>
+    <n v="6"/>
+    <n v="7"/>
+    <n v="16"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="10"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Honey Mustard Snack Wrap (Grilled Chicken)"/>
+    <s v="4.1 oz (116 g)"/>
+    <n v="250"/>
+    <n v="70"/>
+    <n v="8"/>
+    <x v="32"/>
+    <n v="35"/>
+    <n v="18"/>
+    <n v="0"/>
+    <n v="45"/>
+    <n v="14"/>
+    <n v="650"/>
+    <n v="27"/>
+    <n v="27"/>
+    <n v="9"/>
+    <n v="1"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="16"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="10"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Caramel Iced Coffee (Medium)"/>
+    <s v="22 fl oz cup"/>
+    <n v="180"/>
+    <n v="60"/>
+    <n v="7"/>
+    <x v="36"/>
+    <n v="45"/>
+    <n v="22"/>
+    <n v="0"/>
+    <n v="25"/>
+    <n v="9"/>
+    <n v="50"/>
+    <n v="2"/>
+    <n v="29"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="28"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Sausage, Egg &amp; Cheese McGriddles with Egg Whites"/>
+    <s v="7.2 oz (205 g)"/>
+    <n v="500"/>
+    <n v="230"/>
+    <n v="26"/>
+    <x v="19"/>
+    <n v="10"/>
+    <n v="52"/>
+    <n v="0"/>
+    <n v="50"/>
+    <n v="17"/>
+    <n v="1320"/>
+    <n v="55"/>
+    <n v="46"/>
+    <n v="15"/>
+    <n v="2"/>
+    <n v="9"/>
+    <n v="15"/>
+    <n v="21"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="20"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Sausage McGriddles"/>
+    <s v="5 oz (141 g)"/>
+    <n v="420"/>
+    <n v="200"/>
+    <n v="22"/>
+    <x v="12"/>
+    <n v="8"/>
+    <n v="40"/>
+    <n v="0"/>
+    <n v="35"/>
+    <n v="11"/>
+    <n v="1030"/>
+    <n v="43"/>
+    <n v="44"/>
+    <n v="15"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="15"/>
+    <n v="11"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="8"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Bacon, Egg &amp; Cheese Biscuit with Egg Whites (Regular Biscuit)"/>
+    <s v="5.4 oz (153 g)"/>
+    <n v="410"/>
+    <n v="180"/>
+    <n v="20"/>
+    <x v="5"/>
+    <n v="11"/>
+    <n v="56"/>
+    <n v="0"/>
+    <n v="35"/>
+    <n v="11"/>
+    <n v="1300"/>
+    <n v="54"/>
+    <n v="36"/>
+    <n v="12"/>
+    <n v="2"/>
+    <n v="7"/>
+    <n v="3"/>
+    <n v="20"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="15"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Hazelnut Iced Coffee (Medium)"/>
+    <s v="22 fl oz cup"/>
+    <n v="180"/>
+    <n v="60"/>
+    <n v="7"/>
+    <x v="36"/>
+    <n v="45"/>
+    <n v="22"/>
+    <n v="0"/>
+    <n v="25"/>
+    <n v="9"/>
+    <n v="50"/>
+    <n v="2"/>
+    <n v="29"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="28"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Filet-O-Fish"/>
+    <s v="5 oz (142 g)"/>
+    <n v="390"/>
+    <n v="170"/>
+    <n v="19"/>
+    <x v="37"/>
+    <n v="4"/>
+    <n v="19"/>
+    <n v="0"/>
+    <n v="40"/>
+    <n v="14"/>
+    <n v="590"/>
+    <n v="24"/>
+    <n v="39"/>
+    <n v="13"/>
+    <n v="2"/>
+    <n v="7"/>
+    <n v="5"/>
+    <n v="15"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="15"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Bacon, Egg &amp; Cheese McGriddles with Egg Whites"/>
+    <s v="6.3 oz (178 g)"/>
+    <n v="400"/>
+    <n v="140"/>
+    <n v="15"/>
+    <x v="45"/>
+    <n v="7"/>
+    <n v="34"/>
+    <n v="0"/>
+    <n v="35"/>
+    <n v="11"/>
+    <n v="1250"/>
+    <n v="52"/>
+    <n v="47"/>
+    <n v="16"/>
+    <n v="2"/>
+    <n v="9"/>
+    <n v="16"/>
+    <n v="20"/>
+    <n v="2"/>
+    <n v="10"/>
+    <n v="15"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Chicken McNuggets (20 piece)"/>
+    <s v="11.4 oz (323 g)"/>
+    <n v="940"/>
+    <n v="530"/>
+    <n v="59"/>
+    <x v="46"/>
+    <n v="10"/>
+    <n v="50"/>
+    <n v="0"/>
+    <n v="135"/>
+    <n v="44"/>
+    <n v="1800"/>
+    <n v="75"/>
+    <n v="59"/>
+    <n v="20"/>
+    <n v="3"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="44"/>
+    <n v="0"/>
+    <n v="8"/>
+    <n v="4"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Sausage McMuffin with Egg Whites"/>
+    <s v="5.7 oz (161 g)"/>
+    <n v="400"/>
+    <n v="210"/>
+    <n v="23"/>
+    <x v="13"/>
+    <n v="8"/>
+    <n v="42"/>
+    <n v="0"/>
+    <n v="50"/>
+    <n v="16"/>
+    <n v="880"/>
+    <n v="37"/>
+    <n v="30"/>
+    <n v="10"/>
+    <n v="4"/>
+    <n v="17"/>
+    <n v="2"/>
+    <n v="21"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="25"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Sausage McMuffin"/>
+    <s v="3.9 oz (111 g)"/>
+    <n v="370"/>
+    <n v="200"/>
+    <n v="23"/>
+    <x v="13"/>
+    <n v="8"/>
+    <n v="42"/>
+    <n v="0"/>
+    <n v="45"/>
+    <n v="15"/>
+    <n v="780"/>
+    <n v="33"/>
+    <n v="29"/>
+    <n v="10"/>
+    <n v="4"/>
+    <n v="17"/>
+    <n v="2"/>
+    <n v="14"/>
+    <n v="8"/>
+    <n v="0"/>
+    <n v="25"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Fruit &amp; Maple Oatmeal without Brown Sugar"/>
+    <s v="9.6 oz (251 g)"/>
+    <n v="260"/>
+    <n v="40"/>
+    <n v="4"/>
+    <x v="47"/>
+    <n v="15"/>
+    <n v="8"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="115"/>
+    <n v="5"/>
+    <n v="49"/>
+    <n v="16"/>
+    <n v="5"/>
+    <n v="22"/>
+    <n v="18"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="130"/>
+    <n v="6"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Fruit &amp; Maple Oatmeal"/>
+    <s v="9.6 oz (251 g)"/>
+    <n v="290"/>
+    <n v="35"/>
+    <n v="4"/>
+    <x v="47"/>
+    <n v="15"/>
+    <n v="8"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="160"/>
+    <n v="7"/>
+    <n v="58"/>
+    <n v="19"/>
+    <n v="5"/>
+    <n v="19"/>
+    <n v="32"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="130"/>
+    <n v="10"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Premium Southwest Salad (without Chicken)"/>
+    <s v="8.1 oz (230 g)"/>
+    <n v="140"/>
+    <n v="40"/>
+    <n v="45"/>
+    <x v="48"/>
+    <n v="2"/>
+    <n v="9"/>
+    <n v="0"/>
+    <n v="10"/>
+    <n v="3"/>
+    <n v="150"/>
+    <n v="6"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="6"/>
+    <n v="23"/>
+    <n v="6"/>
+    <n v="6"/>
+    <n v="160"/>
+    <n v="25"/>
+    <n v="15"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Regular Iced Coffee (Medium)"/>
+    <s v="22 fl oz cup"/>
+    <n v="190"/>
+    <n v="60"/>
+    <n v="7"/>
+    <x v="36"/>
+    <n v="45"/>
+    <n v="22"/>
+    <n v="0"/>
+    <n v="25"/>
+    <n v="9"/>
+    <n v="50"/>
+    <n v="2"/>
+    <n v="31"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="30"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Iced Mocha with Nonfat Milk (Medium)"/>
+    <s v="16 fl oz cup"/>
+    <n v="290"/>
+    <n v="45"/>
+    <n v="5"/>
+    <x v="49"/>
+    <n v="35"/>
+    <n v="17"/>
+    <n v="0"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="150"/>
+    <n v="6"/>
+    <n v="50"/>
+    <n v="17"/>
+    <n v="1"/>
+    <n v="5"/>
+    <n v="43"/>
+    <n v="10"/>
+    <n v="15"/>
+    <n v="0"/>
+    <n v="30"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Iced Nonfat Caramel Mocha (Large)"/>
+    <s v="22 fl oz cup"/>
+    <n v="370"/>
+    <n v="50"/>
+    <n v="6"/>
+    <x v="49"/>
+    <n v="35"/>
+    <n v="17"/>
+    <n v="0"/>
+    <n v="25"/>
+    <n v="8"/>
+    <n v="250"/>
+    <n v="10"/>
+    <n v="65"/>
+    <n v="22"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="59"/>
+    <n v="14"/>
+    <n v="20"/>
+    <n v="0"/>
+    <n v="45"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Iced Mocha with Nonfat Milk (Large)"/>
+    <s v="22 fl oz cup"/>
+    <n v="390"/>
+    <n v="50"/>
+    <n v="6"/>
+    <x v="50"/>
+    <n v="35"/>
+    <n v="18"/>
+    <n v="0"/>
+    <n v="25"/>
+    <n v="8"/>
+    <n v="220"/>
+    <n v="9"/>
+    <n v="71"/>
+    <n v="24"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="62"/>
+    <n v="14"/>
+    <n v="20"/>
+    <n v="0"/>
+    <n v="45"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Hot Fudge Sundae"/>
+    <s v="6.3 oz (179 g)"/>
+    <n v="330"/>
+    <n v="80"/>
+    <n v="9"/>
+    <x v="51"/>
+    <n v="7"/>
+    <n v="34"/>
+    <n v="0"/>
+    <n v="25"/>
+    <n v="8"/>
+    <n v="170"/>
+    <n v="7"/>
+    <n v="53"/>
+    <n v="18"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="48"/>
+    <n v="8"/>
+    <n v="8"/>
+    <n v="0"/>
+    <n v="25"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Chocolate Chip Cookie"/>
+    <s v="1 cookie (33 g)"/>
+    <n v="160"/>
+    <n v="70"/>
+    <n v="8"/>
+    <x v="2"/>
+    <n v="35"/>
+    <n v="19"/>
+    <n v="0"/>
+    <n v="10"/>
+    <n v="3"/>
+    <n v="90"/>
+    <n v="4"/>
+    <n v="21"/>
+    <n v="7"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="15"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Nonfat Caramel Mocha (Large)"/>
+    <s v="20 fl oz cup"/>
+    <n v="370"/>
+    <n v="35"/>
+    <n v="35"/>
+    <x v="47"/>
+    <n v="25"/>
+    <n v="11"/>
+    <n v="0"/>
+    <n v="20"/>
+    <n v="6"/>
+    <n v="270"/>
+    <n v="11"/>
+    <n v="67"/>
+    <n v="22"/>
+    <n v="1"/>
+    <n v="5"/>
+    <n v="61"/>
+    <n v="17"/>
+    <n v="20"/>
+    <n v="0"/>
+    <n v="50"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Fat Free Chocolate Milk Jug"/>
+    <s v="1 carton (236 ml)"/>
+    <n v="130"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="52"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="135"/>
+    <n v="6"/>
+    <n v="23"/>
+    <n v="8"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="22"/>
+    <n v="9"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="30"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Premium Bacon Ranch Salad with Crispy Chicken"/>
+    <s v="9 oz (255 g)"/>
+    <n v="380"/>
+    <n v="190"/>
+    <n v="21"/>
+    <x v="26"/>
+    <n v="6"/>
+    <n v="29"/>
+    <n v="0"/>
+    <n v="70"/>
+    <n v="23"/>
+    <n v="860"/>
+    <n v="36"/>
+    <n v="22"/>
+    <n v="7"/>
+    <n v="2"/>
+    <n v="10"/>
+    <n v="5"/>
+    <n v="25"/>
+    <n v="100"/>
+    <n v="25"/>
+    <n v="15"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Mocha with Nonfat Milk (Large)"/>
+    <s v="20 fl oz cup"/>
+    <n v="390"/>
+    <n v="35"/>
+    <n v="4"/>
+    <x v="47"/>
+    <n v="25"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="20"/>
+    <n v="6"/>
+    <n v="240"/>
+    <n v="10"/>
+    <n v="73"/>
+    <n v="24"/>
+    <n v="2"/>
+    <n v="10"/>
+    <n v="64"/>
+    <n v="17"/>
+    <n v="20"/>
+    <n v="0"/>
+    <n v="50"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Hot Chocolate with Nonfat Milk (Large)"/>
+    <s v="20 fl oz cup"/>
+    <n v="400"/>
+    <n v="35"/>
+    <n v="35"/>
+    <x v="47"/>
+    <n v="25"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="280"/>
+    <n v="12"/>
+    <n v="74"/>
+    <n v="25"/>
+    <n v="1"/>
+    <n v="5"/>
+    <n v="69"/>
+    <n v="19"/>
+    <n v="25"/>
+    <n v="0"/>
+    <n v="60"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Premium Bacon Ranch Salad with Grilled Chicken"/>
+    <s v="8.5 oz (241 g)"/>
+    <n v="220"/>
+    <n v="80"/>
+    <n v="8"/>
+    <x v="32"/>
+    <n v="4"/>
+    <n v="20"/>
+    <n v="0"/>
+    <n v="85"/>
+    <n v="29"/>
+    <n v="690"/>
+    <n v="29"/>
+    <n v="8"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="10"/>
+    <n v="4"/>
+    <n v="29"/>
+    <n v="110"/>
+    <n v="30"/>
+    <n v="15"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Frappé Chocolate Chip (Large)"/>
+    <s v="22 fl oz cup"/>
+    <n v="760"/>
+    <n v="280"/>
+    <n v="31"/>
+    <x v="23"/>
+    <n v="20"/>
+    <n v="101"/>
+    <n v="15"/>
+    <n v="95"/>
+    <n v="32"/>
+    <n v="200"/>
+    <n v="8"/>
+    <n v="111"/>
+    <n v="37"/>
+    <n v="1"/>
+    <n v="5"/>
+    <n v="99"/>
+    <n v="12"/>
+    <n v="20"/>
+    <n v="0"/>
+    <n v="35"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="McFlurry with M&amp;M’s Candies (Medium)"/>
+    <s v="16.2 oz (460 g)"/>
+    <n v="930"/>
+    <n v="290"/>
+    <n v="33"/>
+    <x v="16"/>
+    <n v="20"/>
+    <n v="102"/>
+    <n v="1"/>
+    <n v="75"/>
+    <n v="25"/>
+    <n v="260"/>
+    <n v="11"/>
+    <n v="139"/>
+    <n v="46"/>
+    <n v="2"/>
+    <n v="7"/>
+    <n v="128"/>
+    <n v="20"/>
+    <n v="25"/>
+    <n v="0"/>
+    <n v="70"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Egg White Delight"/>
+    <s v="4.8 oz (135 g)"/>
+    <n v="250"/>
+    <n v="70"/>
+    <n v="8"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="15"/>
+    <n v="0"/>
+    <n v="25"/>
+    <n v="8"/>
+    <n v="770"/>
+    <n v="32"/>
+    <n v="30"/>
+    <n v="10"/>
+    <n v="4"/>
+    <n v="17"/>
+    <n v="3"/>
+    <n v="18"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="25"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Large French Fries"/>
+    <s v="5.9 oz (168 g)"/>
+    <n v="510"/>
+    <n v="220"/>
+    <n v="24"/>
+    <x v="40"/>
+    <n v="35"/>
+    <n v="17"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="290"/>
+    <n v="12"/>
+    <n v="67"/>
+    <n v="22"/>
+    <n v="5"/>
+    <n v="22"/>
+    <n v="0"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="70"/>
+    <n v="2"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Frappé Chocolate Chip (Medium)"/>
+    <s v="16 fl oz cup"/>
+    <n v="630"/>
+    <n v="240"/>
+    <n v="26"/>
+    <x v="18"/>
+    <n v="17"/>
+    <n v="85"/>
+    <n v="1"/>
+    <n v="80"/>
+    <n v="26"/>
+    <n v="160"/>
+    <n v="7"/>
+    <n v="91"/>
+    <n v="30"/>
+    <n v="1"/>
+    <n v="5"/>
+    <n v="81"/>
+    <n v="9"/>
+    <n v="15"/>
+    <n v="0"/>
+    <n v="30"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Frappé Caramel (Large)"/>
+    <s v="22 fl oz cup"/>
+    <n v="670"/>
+    <n v="250"/>
+    <n v="27"/>
+    <x v="17"/>
+    <n v="17"/>
+    <n v="87"/>
+    <n v="15"/>
+    <n v="95"/>
+    <n v="32"/>
+    <n v="190"/>
+    <n v="8"/>
+    <n v="96"/>
+    <n v="32"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="88"/>
+    <n v="11"/>
+    <n v="20"/>
+    <n v="0"/>
+    <n v="35"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Frappé Mocha (Large)"/>
+    <s v="22 fl oz cup"/>
+    <n v="670"/>
+    <n v="240"/>
+    <n v="26"/>
+    <x v="18"/>
+    <n v="17"/>
+    <n v="85"/>
+    <n v="1"/>
+    <n v="90"/>
+    <n v="30"/>
+    <n v="190"/>
+    <n v="8"/>
+    <n v="98"/>
+    <n v="33"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="88"/>
+    <n v="11"/>
+    <n v="20"/>
+    <n v="0"/>
+    <n v="35"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Frappé Caramel (Medium)"/>
+    <s v="16 fl oz cup"/>
+    <n v="550"/>
+    <n v="200"/>
+    <n v="23"/>
+    <x v="13"/>
+    <n v="15"/>
+    <n v="73"/>
+    <n v="1"/>
+    <n v="80"/>
+    <n v="27"/>
+    <n v="160"/>
+    <n v="7"/>
+    <n v="79"/>
+    <n v="26"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="71"/>
+    <n v="9"/>
+    <n v="20"/>
+    <n v="0"/>
+    <n v="30"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="McFlurry with Reese's Peanut Butter Cups (Medium)"/>
+    <s v="14.2 oz (403 g)"/>
+    <n v="810"/>
+    <n v="290"/>
+    <n v="32"/>
+    <x v="16"/>
+    <n v="15"/>
+    <n v="76"/>
+    <n v="1"/>
+    <n v="60"/>
+    <n v="20"/>
+    <n v="400"/>
+    <n v="17"/>
+    <n v="114"/>
+    <n v="38"/>
+    <n v="2"/>
+    <n v="9"/>
+    <n v="103"/>
+    <n v="21"/>
+    <n v="20"/>
+    <n v="0"/>
+    <n v="60"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Oatmeal Raisin Cookie"/>
+    <s v="1 cookie (33 g)"/>
+    <n v="150"/>
+    <n v="50"/>
+    <n v="6"/>
+    <x v="50"/>
+    <n v="25"/>
+    <n v="13"/>
+    <n v="0"/>
+    <n v="10"/>
+    <n v="3"/>
+    <n v="135"/>
+    <n v="6"/>
+    <n v="22"/>
+    <n v="7"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="13"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Vanilla Shake (Large)"/>
+    <s v="22 fl oz cup"/>
+    <n v="820"/>
+    <n v="210"/>
+    <n v="23"/>
+    <x v="13"/>
+    <n v="15"/>
+    <n v="73"/>
+    <n v="1"/>
+    <n v="90"/>
+    <n v="29"/>
+    <n v="260"/>
+    <n v="11"/>
+    <n v="135"/>
+    <n v="45"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="101"/>
+    <n v="18"/>
+    <n v="30"/>
+    <n v="0"/>
+    <n v="60"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Shamrock Shake (Large)"/>
+    <s v="22 fl oz cup"/>
+    <n v="820"/>
+    <n v="210"/>
+    <n v="23"/>
+    <x v="13"/>
+    <n v="15"/>
+    <n v="73"/>
+    <n v="1"/>
+    <n v="90"/>
+    <n v="29"/>
+    <n v="260"/>
+    <n v="11"/>
+    <n v="135"/>
+    <n v="45"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="115"/>
+    <n v="18"/>
+    <n v="30"/>
+    <n v="0"/>
+    <n v="60"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Strawberry Shake (Large)"/>
+    <s v="22 fl oz cup"/>
+    <n v="850"/>
+    <n v="210"/>
+    <n v="24"/>
+    <x v="14"/>
+    <n v="15"/>
+    <n v="75"/>
+    <n v="1"/>
+    <n v="90"/>
+    <n v="30"/>
+    <n v="260"/>
+    <n v="11"/>
+    <n v="140"/>
+    <n v="47"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="123"/>
+    <n v="18"/>
+    <n v="30"/>
+    <n v="0"/>
+    <n v="70"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Chocolate Shake (Large)"/>
+    <s v="22 fl oz cup"/>
+    <n v="850"/>
+    <n v="210"/>
+    <n v="23"/>
+    <x v="14"/>
+    <n v="15"/>
+    <n v="74"/>
+    <n v="1"/>
+    <n v="85"/>
+    <n v="29"/>
+    <n v="380"/>
+    <n v="16"/>
+    <n v="141"/>
+    <n v="47"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="120"/>
+    <n v="19"/>
+    <n v="30"/>
+    <n v="0"/>
+    <n v="60"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Chicken McNuggets (10 piece)"/>
+    <s v="5.7 oz (162 g)"/>
+    <n v="470"/>
+    <n v="270"/>
+    <n v="30"/>
+    <x v="20"/>
+    <n v="5"/>
+    <n v="25"/>
+    <n v="0"/>
+    <n v="65"/>
+    <n v="22"/>
+    <n v="900"/>
+    <n v="37"/>
+    <n v="30"/>
+    <n v="10"/>
+    <n v="2"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="22"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Frappé Chocolate Chip (Small)"/>
+    <s v="12 fl oz cup"/>
+    <n v="530"/>
+    <n v="200"/>
+    <n v="23"/>
+    <x v="13"/>
+    <n v="14"/>
+    <n v="72"/>
+    <n v="1"/>
+    <n v="65"/>
+    <n v="22"/>
+    <n v="135"/>
+    <n v="6"/>
+    <n v="76"/>
+    <n v="25"/>
+    <n v="1"/>
+    <n v="5"/>
+    <n v="67"/>
+    <n v="8"/>
+    <n v="15"/>
+    <n v="0"/>
+    <n v="25"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Frappé Mocha (Medium)"/>
+    <s v="16 fl oz cup"/>
+    <n v="550"/>
+    <n v="200"/>
+    <n v="22"/>
+    <x v="12"/>
+    <n v="14"/>
+    <n v="71"/>
+    <n v="1"/>
+    <n v="75"/>
+    <n v="25"/>
+    <n v="160"/>
+    <n v="7"/>
+    <n v="80"/>
+    <n v="27"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="71"/>
+    <n v="9"/>
+    <n v="15"/>
+    <n v="0"/>
+    <n v="25"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="McFlurry with M&amp;M’s Candies (Small)"/>
+    <s v="10.9 oz (310 g)"/>
+    <n v="650"/>
+    <n v="210"/>
+    <n v="23"/>
+    <x v="13"/>
+    <n v="14"/>
+    <n v="72"/>
+    <n v="5"/>
+    <n v="50"/>
+    <n v="17"/>
+    <n v="180"/>
+    <n v="7"/>
+    <n v="96"/>
+    <n v="32"/>
+    <n v="1"/>
+    <n v="6"/>
+    <n v="89"/>
+    <n v="13"/>
+    <n v="15"/>
+    <n v="0"/>
+    <n v="45"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Strawberry Shake (Medium)"/>
+    <s v="16 fl oz cup"/>
+    <n v="690"/>
+    <n v="180"/>
+    <n v="20"/>
+    <x v="41"/>
+    <n v="13"/>
+    <n v="63"/>
+    <n v="1"/>
+    <n v="75"/>
+    <n v="25"/>
+    <n v="210"/>
+    <n v="9"/>
+    <n v="114"/>
+    <n v="38"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="100"/>
+    <n v="15"/>
+    <n v="25"/>
+    <n v="0"/>
+    <n v="50"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Premium Bacon Ranch Salad (without Chicken)"/>
+    <s v="7.9 oz (223 g)"/>
+    <n v="140"/>
+    <n v="70"/>
+    <n v="7"/>
+    <x v="36"/>
+    <n v="35"/>
+    <n v="18"/>
+    <n v="0"/>
+    <n v="25"/>
+    <n v="9"/>
+    <n v="300"/>
+    <n v="13"/>
+    <n v="10"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="12"/>
+    <n v="4"/>
+    <n v="9"/>
+    <n v="170"/>
+    <n v="30"/>
+    <n v="15"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Baked Apple Pie"/>
+    <s v="2.7 oz (77 g)"/>
+    <n v="250"/>
+    <n v="110"/>
+    <n v="13"/>
+    <x v="53"/>
+    <n v="7"/>
+    <n v="35"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="170"/>
+    <n v="7"/>
+    <n v="32"/>
+    <n v="11"/>
+    <n v="4"/>
+    <n v="15"/>
+    <n v="13"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="25"/>
+    <n v="2"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Frappé Caramel (Small)"/>
+    <s v="12 fl oz cup"/>
+    <n v="450"/>
+    <n v="170"/>
+    <n v="19"/>
+    <x v="37"/>
+    <n v="12"/>
+    <n v="60"/>
+    <n v="1"/>
+    <n v="65"/>
+    <n v="22"/>
+    <n v="125"/>
+    <n v="5"/>
+    <n v="64"/>
+    <n v="21"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="57"/>
+    <n v="7"/>
+    <n v="15"/>
+    <n v="0"/>
+    <n v="25"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Frappé Mocha (Small)"/>
+    <s v="12 fl oz cup"/>
+    <n v="450"/>
+    <n v="160"/>
+    <n v="18"/>
+    <x v="28"/>
+    <n v="12"/>
+    <n v="59"/>
+    <n v="1"/>
+    <n v="65"/>
+    <n v="21"/>
+    <n v="125"/>
+    <n v="5"/>
+    <n v="65"/>
+    <n v="22"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="57"/>
+    <n v="7"/>
+    <n v="15"/>
+    <n v="0"/>
+    <n v="20"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Hot Chocolate (Large)"/>
+    <s v="20 fl oz cup"/>
+    <n v="540"/>
+    <n v="180"/>
+    <n v="20"/>
+    <x v="27"/>
+    <n v="12"/>
+    <n v="58"/>
+    <n v="5"/>
+    <n v="60"/>
+    <n v="20"/>
+    <n v="280"/>
+    <n v="12"/>
+    <n v="73"/>
+    <n v="24"/>
+    <n v="1"/>
+    <n v="5"/>
+    <n v="68"/>
+    <n v="17"/>
+    <n v="20"/>
+    <n v="0"/>
+    <n v="60"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="McFlurry with Oreo Cookies (Medium)"/>
+    <s v="13.4 oz (381 g)"/>
+    <n v="690"/>
+    <n v="200"/>
+    <n v="23"/>
+    <x v="13"/>
+    <n v="12"/>
+    <n v="58"/>
+    <n v="1"/>
+    <n v="55"/>
+    <n v="19"/>
+    <n v="380"/>
+    <n v="16"/>
+    <n v="106"/>
+    <n v="35"/>
+    <n v="1"/>
+    <n v="5"/>
+    <n v="85"/>
+    <n v="15"/>
+    <n v="20"/>
+    <n v="0"/>
+    <n v="50"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Chicken McNuggets (6 piece)"/>
+    <s v="3.4 oz (97 g)"/>
+    <n v="280"/>
+    <n v="160"/>
+    <n v="18"/>
+    <x v="29"/>
+    <n v="3"/>
+    <n v="15"/>
+    <n v="0"/>
+    <n v="40"/>
+    <n v="13"/>
+    <n v="540"/>
+    <n v="22"/>
+    <n v="18"/>
+    <n v="6"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="13"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Vanilla Shake (Medium)"/>
+    <s v="16 fl oz cup"/>
+    <n v="660"/>
+    <n v="170"/>
+    <n v="19"/>
+    <x v="37"/>
+    <n v="12"/>
+    <n v="61"/>
+    <n v="1"/>
+    <n v="75"/>
+    <n v="24"/>
+    <n v="200"/>
+    <n v="9"/>
+    <n v="109"/>
+    <n v="36"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="81"/>
+    <n v="14"/>
+    <n v="25"/>
+    <n v="0"/>
+    <n v="50"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Shamrock Shake (Medium)"/>
+    <s v="16 fl oz cup"/>
+    <n v="660"/>
+    <n v="170"/>
+    <n v="19"/>
+    <x v="37"/>
+    <n v="12"/>
+    <n v="61"/>
+    <n v="1"/>
+    <n v="75"/>
+    <n v="24"/>
+    <n v="210"/>
+    <n v="9"/>
+    <n v="109"/>
+    <n v="36"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="93"/>
+    <n v="14"/>
+    <n v="25"/>
+    <n v="0"/>
+    <n v="50"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Chocolate Shake (Medium)"/>
+    <s v="16 fl oz cup"/>
+    <n v="700"/>
+    <n v="180"/>
+    <n v="20"/>
+    <x v="41"/>
+    <n v="12"/>
+    <n v="62"/>
+    <n v="1"/>
+    <n v="75"/>
+    <n v="24"/>
+    <n v="300"/>
+    <n v="13"/>
+    <n v="114"/>
+    <n v="38"/>
+    <n v="2"/>
+    <n v="6"/>
+    <n v="97"/>
+    <n v="15"/>
+    <n v="25"/>
+    <n v="0"/>
+    <n v="50"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="McFlurry with M&amp;M’s Candies (Snack)"/>
+    <s v="7.3 oz (207 g)"/>
+    <n v="430"/>
+    <n v="140"/>
+    <n v="15"/>
+    <x v="45"/>
+    <n v="10"/>
+    <n v="48"/>
+    <n v="0"/>
+    <n v="35"/>
+    <n v="11"/>
+    <n v="120"/>
+    <n v="5"/>
+    <n v="64"/>
+    <n v="21"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="59"/>
+    <n v="9"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="30"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Iced Caramel Mocha (Large)"/>
+    <s v="22 fl oz cup"/>
+    <n v="460"/>
+    <n v="150"/>
+    <n v="16"/>
+    <x v="33"/>
+    <n v="10"/>
+    <n v="48"/>
+    <n v="5"/>
+    <n v="50"/>
+    <n v="17"/>
+    <n v="250"/>
+    <n v="10"/>
+    <n v="65"/>
+    <n v="22"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="59"/>
+    <n v="13"/>
+    <n v="15"/>
+    <n v="0"/>
+    <n v="40"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Caramel Mocha (Large)"/>
+    <s v="20 fl oz cup"/>
+    <n v="480"/>
+    <n v="150"/>
+    <n v="17"/>
+    <x v="4"/>
+    <n v="10"/>
+    <n v="49"/>
+    <n v="5"/>
+    <n v="50"/>
+    <n v="17"/>
+    <n v="270"/>
+    <n v="11"/>
+    <n v="66"/>
+    <n v="22"/>
+    <n v="1"/>
+    <n v="5"/>
+    <n v="60"/>
+    <n v="16"/>
+    <n v="15"/>
+    <n v="0"/>
+    <n v="50"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Iced Mocha (Large)"/>
+    <s v="22 fl oz cup"/>
+    <n v="480"/>
+    <n v="150"/>
+    <n v="16"/>
+    <x v="33"/>
+    <n v="10"/>
+    <n v="49"/>
+    <n v="5"/>
+    <n v="50"/>
+    <n v="17"/>
+    <n v="220"/>
+    <n v="9"/>
+    <n v="70"/>
+    <n v="23"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="62"/>
+    <n v="14"/>
+    <n v="15"/>
+    <n v="0"/>
+    <n v="40"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Mocha (Large)"/>
+    <s v="20 fl oz cup"/>
+    <n v="500"/>
+    <n v="150"/>
+    <n v="17"/>
+    <x v="4"/>
+    <n v="10"/>
+    <n v="49"/>
+    <n v="5"/>
+    <n v="50"/>
+    <n v="17"/>
+    <n v="240"/>
+    <n v="10"/>
+    <n v="72"/>
+    <n v="24"/>
+    <n v="2"/>
+    <n v="10"/>
+    <n v="63"/>
+    <n v="16"/>
+    <n v="15"/>
+    <n v="0"/>
+    <n v="50"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Vanilla Shake (Small)"/>
+    <s v="12 fl oz cup"/>
+    <n v="530"/>
+    <n v="140"/>
+    <n v="15"/>
+    <x v="45"/>
+    <n v="10"/>
+    <n v="49"/>
+    <n v="1"/>
+    <n v="60"/>
+    <n v="20"/>
+    <n v="160"/>
+    <n v="7"/>
+    <n v="86"/>
+    <n v="29"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="63"/>
+    <n v="11"/>
+    <n v="20"/>
+    <n v="0"/>
+    <n v="40"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Fruit 'n Yogurt Parfait"/>
+    <s v="5.2 oz (149 g)"/>
+    <n v="150"/>
+    <n v="20"/>
+    <n v="2"/>
+    <x v="54"/>
+    <n v="1"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="70"/>
+    <n v="3"/>
+    <n v="30"/>
+    <n v="10"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="23"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="15"/>
+    <n v="10"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Side Salad"/>
+    <s v="3.1 oz (87 g)"/>
+    <n v="20"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="52"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="6"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="45"/>
+    <n v="25"/>
+    <n v="2"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Small French Fries"/>
+    <s v="2.6 oz (75 g)"/>
+    <n v="230"/>
+    <n v="100"/>
+    <n v="11"/>
+    <x v="55"/>
+    <n v="15"/>
+    <n v="8"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="130"/>
+    <n v="5"/>
+    <n v="30"/>
+    <n v="10"/>
+    <n v="2"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="30"/>
+    <n v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Strawberry Shake (Small)"/>
+    <s v="12 fl oz cup"/>
+    <n v="550"/>
+    <n v="150"/>
+    <n v="16"/>
+    <x v="33"/>
+    <n v="10"/>
+    <n v="52"/>
+    <n v="1"/>
+    <n v="60"/>
+    <n v="21"/>
+    <n v="160"/>
+    <n v="7"/>
+    <n v="90"/>
+    <n v="30"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="79"/>
+    <n v="12"/>
+    <n v="20"/>
+    <n v="0"/>
+    <n v="40"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Medium French Fries"/>
+    <s v="3.9 oz (111 g)"/>
+    <n v="340"/>
+    <n v="140"/>
+    <n v="16"/>
+    <x v="45"/>
+    <n v="25"/>
+    <n v="11"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="190"/>
+    <n v="8"/>
+    <n v="44"/>
+    <n v="15"/>
+    <n v="4"/>
+    <n v="14"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="45"/>
+    <n v="2"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Chocolate Shake (Small)"/>
+    <s v="12 fl oz cup"/>
+    <n v="560"/>
+    <n v="150"/>
+    <n v="16"/>
+    <x v="33"/>
+    <n v="10"/>
+    <n v="51"/>
+    <n v="1"/>
+    <n v="60"/>
+    <n v="20"/>
+    <n v="240"/>
+    <n v="10"/>
+    <n v="91"/>
+    <n v="30"/>
+    <n v="1"/>
+    <n v="5"/>
+    <n v="77"/>
+    <n v="12"/>
+    <n v="20"/>
+    <n v="0"/>
+    <n v="40"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Hot Chocolate (Medium)"/>
+    <s v="16 fl oz cup"/>
+    <n v="440"/>
+    <n v="140"/>
+    <n v="16"/>
+    <x v="33"/>
+    <n v="9"/>
+    <n v="47"/>
+    <n v="5"/>
+    <n v="50"/>
+    <n v="16"/>
+    <n v="220"/>
+    <n v="9"/>
+    <n v="61"/>
+    <n v="20"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="56"/>
+    <n v="14"/>
+    <n v="15"/>
+    <n v="0"/>
+    <n v="45"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="McFlurry with Oreo Cookies (Small)"/>
+    <s v="10.1 oz (285 g)"/>
+    <n v="510"/>
+    <n v="150"/>
+    <n v="17"/>
+    <x v="4"/>
+    <n v="9"/>
+    <n v="44"/>
+    <n v="5"/>
+    <n v="45"/>
+    <n v="14"/>
+    <n v="280"/>
+    <n v="12"/>
+    <n v="80"/>
+    <n v="27"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="64"/>
+    <n v="12"/>
+    <n v="15"/>
+    <n v="0"/>
+    <n v="40"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Latte (Large)"/>
+    <s v="20 fl oz cup"/>
+    <n v="280"/>
+    <n v="120"/>
+    <n v="14"/>
+    <x v="56"/>
+    <n v="8"/>
+    <n v="39"/>
+    <n v="0"/>
+    <n v="40"/>
+    <n v="14"/>
+    <n v="180"/>
+    <n v="8"/>
+    <n v="24"/>
+    <n v="8"/>
+    <n v="1"/>
+    <n v="6"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+    <n v="0"/>
+    <n v="50"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Latte with Sugar Free French Vanilla Syrup (Large)"/>
+    <s v="20 fl oz cup"/>
+    <n v="330"/>
+    <n v="120"/>
+    <n v="14"/>
+    <x v="56"/>
+    <n v="8"/>
+    <n v="39"/>
+    <n v="0"/>
+    <n v="40"/>
+    <n v="14"/>
+    <n v="240"/>
+    <n v="10"/>
+    <n v="37"/>
+    <n v="12"/>
+    <n v="2"/>
+    <n v="7"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="15"/>
+    <n v="0"/>
+    <n v="50"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Hot Chocolate (Small)"/>
+    <s v="12 fl oz cup"/>
+    <n v="360"/>
+    <n v="120"/>
+    <n v="13"/>
+    <x v="56"/>
+    <n v="8"/>
+    <n v="39"/>
+    <n v="0"/>
+    <n v="40"/>
+    <n v="14"/>
+    <n v="180"/>
+    <n v="8"/>
+    <n v="50"/>
+    <n v="17"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="45"/>
+    <n v="11"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="40"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Iced Mocha (Medium)"/>
+    <s v="16 fl oz cup"/>
+    <n v="350"/>
+    <n v="110"/>
+    <n v="13"/>
+    <x v="53"/>
+    <n v="8"/>
+    <n v="38"/>
+    <n v="0"/>
+    <n v="40"/>
+    <n v="13"/>
+    <n v="150"/>
+    <n v="6"/>
+    <n v="50"/>
+    <n v="17"/>
+    <n v="1"/>
+    <n v="5"/>
+    <n v="43"/>
+    <n v="9"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="30"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Caramel Mocha (Medium)"/>
+    <s v="16 fl oz cup"/>
+    <n v="390"/>
+    <n v="120"/>
+    <n v="14"/>
+    <x v="56"/>
+    <n v="8"/>
+    <n v="40"/>
+    <n v="5"/>
+    <n v="40"/>
+    <n v="14"/>
+    <n v="220"/>
+    <n v="9"/>
+    <n v="55"/>
+    <n v="18"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="50"/>
+    <n v="12"/>
+    <n v="15"/>
+    <n v="0"/>
+    <n v="40"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="McFlurry with Reese's Peanut Butter Cups (Snack)"/>
+    <s v="7.1 oz (202 g)"/>
+    <n v="410"/>
+    <n v="150"/>
+    <n v="16"/>
+    <x v="33"/>
+    <n v="8"/>
+    <n v="38"/>
+    <n v="0"/>
+    <n v="30"/>
+    <n v="10"/>
+    <n v="200"/>
+    <n v="8"/>
+    <n v="57"/>
+    <n v="19"/>
+    <n v="1"/>
+    <n v="5"/>
+    <n v="51"/>
+    <n v="10"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="30"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Mocha (Medium)"/>
+    <s v="16 fl oz cup"/>
+    <n v="410"/>
+    <n v="120"/>
+    <n v="14"/>
+    <x v="56"/>
+    <n v="8"/>
+    <n v="40"/>
+    <n v="0"/>
+    <n v="40"/>
+    <n v="14"/>
+    <n v="190"/>
+    <n v="8"/>
+    <n v="60"/>
+    <n v="20"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="53"/>
+    <n v="13"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="40"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="French Vanilla Latte (Large)"/>
+    <s v="20 fl oz cup"/>
+    <n v="420"/>
+    <n v="120"/>
+    <n v="14"/>
+    <x v="56"/>
+    <n v="8"/>
+    <n v="39"/>
+    <n v="0"/>
+    <n v="40"/>
+    <n v="14"/>
+    <n v="190"/>
+    <n v="8"/>
+    <n v="60"/>
+    <n v="20"/>
+    <n v="1"/>
+    <n v="6"/>
+    <n v="56"/>
+    <n v="15"/>
+    <n v="15"/>
+    <n v="0"/>
+    <n v="50"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Chicken McNuggets (4 piece)"/>
+    <s v="2.3 oz (65 g)"/>
+    <n v="190"/>
+    <n v="110"/>
+    <n v="12"/>
+    <x v="3"/>
+    <n v="2"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="25"/>
+    <n v="9"/>
+    <n v="360"/>
+    <n v="15"/>
+    <n v="12"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="9"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Caramel Latte (Large)"/>
+    <s v="20 fl oz cup"/>
+    <n v="430"/>
+    <n v="120"/>
+    <n v="14"/>
+    <x v="56"/>
+    <n v="8"/>
+    <n v="39"/>
+    <n v="0"/>
+    <n v="40"/>
+    <n v="14"/>
+    <n v="180"/>
+    <n v="8"/>
+    <n v="62"/>
+    <n v="21"/>
+    <n v="1"/>
+    <n v="6"/>
+    <n v="59"/>
+    <n v="15"/>
+    <n v="15"/>
+    <n v="0"/>
+    <n v="50"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Hazelnut Latte (Large)"/>
+    <s v="20 fl oz cup"/>
+    <n v="430"/>
+    <n v="120"/>
+    <n v="14"/>
+    <x v="56"/>
+    <n v="8"/>
+    <n v="39"/>
+    <n v="0"/>
+    <n v="40"/>
+    <n v="14"/>
+    <n v="180"/>
+    <n v="8"/>
+    <n v="62"/>
+    <n v="21"/>
+    <n v="1"/>
+    <n v="6"/>
+    <n v="58"/>
+    <n v="15"/>
+    <n v="15"/>
+    <n v="0"/>
+    <n v="50"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Iced Caramel Mocha (Small)"/>
+    <s v="12 fl oz cup"/>
+    <n v="280"/>
+    <n v="100"/>
+    <n v="11"/>
+    <x v="55"/>
+    <n v="7"/>
+    <n v="33"/>
+    <n v="0"/>
+    <n v="35"/>
+    <n v="12"/>
+    <n v="140"/>
+    <n v="6"/>
+    <n v="38"/>
+    <n v="13"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="33"/>
+    <n v="8"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="25"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Kids French Fries"/>
+    <s v="1.3 oz (38 g)"/>
+    <n v="110"/>
+    <n v="50"/>
+    <n v="5"/>
+    <x v="49"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="65"/>
+    <n v="3"/>
+    <n v="15"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="15"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Iced Mocha (Small)"/>
+    <s v="12 fl oz cup"/>
+    <n v="290"/>
+    <n v="100"/>
+    <n v="11"/>
+    <x v="55"/>
+    <n v="7"/>
+    <n v="33"/>
+    <n v="0"/>
+    <n v="35"/>
+    <n v="12"/>
+    <n v="125"/>
+    <n v="5"/>
+    <n v="41"/>
+    <n v="14"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="34"/>
+    <n v="8"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="25"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Caramel Mocha (Small)"/>
+    <s v="12 fl oz cup"/>
+    <n v="320"/>
+    <n v="100"/>
+    <n v="11"/>
+    <x v="55"/>
+    <n v="7"/>
+    <n v="33"/>
+    <n v="0"/>
+    <n v="35"/>
+    <n v="12"/>
+    <n v="170"/>
+    <n v="7"/>
+    <n v="45"/>
+    <n v="15"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="40"/>
+    <n v="10"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="30"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Iced Caramel Mocha (Medium)"/>
+    <s v="16 fl oz cup"/>
+    <n v="340"/>
+    <n v="110"/>
+    <n v="13"/>
+    <x v="53"/>
+    <n v="7"/>
+    <n v="37"/>
+    <n v="0"/>
+    <n v="40"/>
+    <n v="13"/>
+    <n v="170"/>
+    <n v="7"/>
+    <n v="46"/>
+    <n v="15"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="41"/>
+    <n v="9"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="30"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Mocha (Small)"/>
+    <s v="12 fl oz cup"/>
+    <n v="340"/>
+    <n v="100"/>
+    <n v="11"/>
+    <x v="3"/>
+    <n v="7"/>
+    <n v="34"/>
+    <n v="0"/>
+    <n v="35"/>
+    <n v="12"/>
+    <n v="150"/>
+    <n v="6"/>
+    <n v="49"/>
+    <n v="16"/>
+    <n v="2"/>
+    <n v="6"/>
+    <n v="42"/>
+    <n v="10"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="30"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Iced Coffee with Sugar Free French Vanilla Syrup (Large)"/>
+    <s v="32 fl oz cup"/>
+    <n v="160"/>
+    <n v="80"/>
+    <n v="9"/>
+    <x v="51"/>
+    <n v="6"/>
+    <n v="29"/>
+    <n v="0"/>
+    <n v="35"/>
+    <n v="12"/>
+    <n v="135"/>
+    <n v="6"/>
+    <n v="18"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="8"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Latte (Medium)"/>
+    <s v="16 fl oz cup"/>
+    <n v="210"/>
+    <n v="90"/>
+    <n v="10"/>
+    <x v="57"/>
+    <n v="6"/>
+    <n v="30"/>
+    <n v="0"/>
+    <n v="30"/>
+    <n v="11"/>
+    <n v="140"/>
+    <n v="6"/>
+    <n v="18"/>
+    <n v="6"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="15"/>
+    <n v="11"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="35"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Latte with Sugar Free French Vanilla Syrup (Medium)"/>
+    <s v="16 fl oz cup"/>
+    <n v="260"/>
+    <n v="90"/>
+    <n v="10"/>
+    <x v="57"/>
+    <n v="6"/>
+    <n v="30"/>
+    <n v="0"/>
+    <n v="30"/>
+    <n v="11"/>
+    <n v="190"/>
+    <n v="8"/>
+    <n v="29"/>
+    <n v="10"/>
+    <n v="1"/>
+    <n v="5"/>
+    <n v="15"/>
+    <n v="12"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="35"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="French Vanilla Iced Coffee (Large)"/>
+    <s v="32 fl oz cup"/>
+    <n v="240"/>
+    <n v="80"/>
+    <n v="9"/>
+    <x v="51"/>
+    <n v="6"/>
+    <n v="29"/>
+    <n v="0"/>
+    <n v="35"/>
+    <n v="12"/>
+    <n v="80"/>
+    <n v="3"/>
+    <n v="41"/>
+    <n v="14"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="39"/>
+    <n v="2"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="8"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Caramel Iced Coffee (Large)"/>
+    <s v="32 fl oz cup"/>
+    <n v="260"/>
+    <n v="80"/>
+    <n v="9"/>
+    <x v="51"/>
+    <n v="6"/>
+    <n v="29"/>
+    <n v="0"/>
+    <n v="35"/>
+    <n v="12"/>
+    <n v="65"/>
+    <n v="3"/>
+    <n v="43"/>
+    <n v="14"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="42"/>
+    <n v="2"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="6"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Hazelnut Iced Coffee (Large)"/>
+    <s v="32 fl oz cup"/>
+    <n v="250"/>
+    <n v="80"/>
+    <n v="9"/>
+    <x v="51"/>
+    <n v="6"/>
+    <n v="29"/>
+    <n v="0"/>
+    <n v="35"/>
+    <n v="12"/>
+    <n v="75"/>
+    <n v="3"/>
+    <n v="43"/>
+    <n v="14"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="41"/>
+    <n v="2"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="8"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Regular Iced Coffee (Large)"/>
+    <s v="32 fl oz cup"/>
+    <n v="270"/>
+    <n v="80"/>
+    <n v="9"/>
+    <x v="51"/>
+    <n v="6"/>
+    <n v="29"/>
+    <n v="0"/>
+    <n v="35"/>
+    <n v="12"/>
+    <n v="75"/>
+    <n v="3"/>
+    <n v="47"/>
+    <n v="16"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="45"/>
+    <n v="2"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="8"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Hash Brown"/>
+    <s v="2 oz (56 g)"/>
+    <n v="150"/>
+    <n v="80"/>
+    <n v="9"/>
+    <x v="51"/>
+    <n v="15"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="310"/>
+    <n v="13"/>
+    <n v="15"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="French Vanilla Latte (Medium)"/>
+    <s v="16 fl oz cup"/>
+    <n v="330"/>
+    <n v="90"/>
+    <n v="10"/>
+    <x v="57"/>
+    <n v="6"/>
+    <n v="30"/>
+    <n v="0"/>
+    <n v="30"/>
+    <n v="11"/>
+    <n v="140"/>
+    <n v="6"/>
+    <n v="48"/>
+    <n v="16"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="45"/>
+    <n v="11"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="35"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Caramel Latte (Medium)"/>
+    <s v="16 fl oz cup"/>
+    <n v="340"/>
+    <n v="90"/>
+    <n v="10"/>
+    <x v="57"/>
+    <n v="6"/>
+    <n v="30"/>
+    <n v="0"/>
+    <n v="30"/>
+    <n v="11"/>
+    <n v="140"/>
+    <n v="6"/>
+    <n v="50"/>
+    <n v="17"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="48"/>
+    <n v="11"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="35"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Hazelnut Latte (Medium)"/>
+    <s v="16 fl oz cup"/>
+    <n v="330"/>
+    <n v="90"/>
+    <n v="10"/>
+    <x v="57"/>
+    <n v="6"/>
+    <n v="30"/>
+    <n v="0"/>
+    <n v="30"/>
+    <n v="11"/>
+    <n v="140"/>
+    <n v="6"/>
+    <n v="50"/>
+    <n v="17"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="47"/>
+    <n v="11"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="35"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="McFlurry with Oreo Cookies (Snack)"/>
+    <s v="6.7 oz (190 g)"/>
+    <n v="340"/>
+    <n v="100"/>
+    <n v="11"/>
+    <x v="55"/>
+    <n v="6"/>
+    <n v="29"/>
+    <n v="0"/>
+    <n v="30"/>
+    <n v="9"/>
+    <n v="190"/>
+    <n v="8"/>
+    <n v="53"/>
+    <n v="18"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="43"/>
+    <n v="8"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="25"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Latte (Small)"/>
+    <s v="12 fl oz cup"/>
+    <n v="170"/>
+    <n v="80"/>
+    <n v="9"/>
+    <x v="32"/>
+    <n v="5"/>
+    <n v="24"/>
+    <n v="0"/>
+    <n v="25"/>
+    <n v="9"/>
+    <n v="115"/>
+    <n v="5"/>
+    <n v="15"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="12"/>
+    <n v="9"/>
+    <n v="8"/>
+    <n v="0"/>
+    <n v="30"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Latte with Sugar Free French Vanilla Syrup (Small)"/>
+    <s v="12 fl oz cup"/>
+    <n v="210"/>
+    <n v="80"/>
+    <n v="9"/>
+    <x v="32"/>
+    <n v="5"/>
+    <n v="24"/>
+    <n v="0"/>
+    <n v="25"/>
+    <n v="9"/>
+    <n v="150"/>
+    <n v="6"/>
+    <n v="24"/>
+    <n v="8"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="12"/>
+    <n v="9"/>
+    <n v="8"/>
+    <n v="0"/>
+    <n v="30"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="French Vanilla Latte (Small)"/>
+    <s v="12 fl oz cup"/>
+    <n v="260"/>
+    <n v="80"/>
+    <n v="9"/>
+    <x v="32"/>
+    <n v="5"/>
+    <n v="24"/>
+    <n v="0"/>
+    <n v="25"/>
+    <n v="9"/>
+    <n v="115"/>
+    <n v="5"/>
+    <n v="38"/>
+    <n v="13"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="36"/>
+    <n v="9"/>
+    <n v="8"/>
+    <n v="0"/>
+    <n v="30"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Caramel Latte (Small)"/>
+    <s v="12 fl oz cup"/>
+    <n v="270"/>
+    <n v="80"/>
+    <n v="9"/>
+    <x v="32"/>
+    <n v="5"/>
+    <n v="24"/>
+    <n v="0"/>
+    <n v="25"/>
+    <n v="9"/>
+    <n v="115"/>
+    <n v="5"/>
+    <n v="40"/>
+    <n v="13"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="38"/>
+    <n v="9"/>
+    <n v="8"/>
+    <n v="0"/>
+    <n v="30"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Hazelnut Latte (Small)"/>
+    <s v="12 fl oz cup"/>
+    <n v="270"/>
+    <n v="80"/>
+    <n v="9"/>
+    <x v="32"/>
+    <n v="5"/>
+    <n v="24"/>
+    <n v="0"/>
+    <n v="25"/>
+    <n v="9"/>
+    <n v="115"/>
+    <n v="5"/>
+    <n v="40"/>
+    <n v="13"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="38"/>
+    <n v="9"/>
+    <n v="8"/>
+    <n v="0"/>
+    <n v="30"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Strawberry Banana Smoothie (Large)"/>
+    <s v="22 fl oz cup"/>
+    <n v="330"/>
+    <n v="10"/>
+    <n v="1"/>
+    <x v="58"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="80"/>
+    <n v="3"/>
+    <n v="74"/>
+    <n v="25"/>
+    <n v="4"/>
+    <n v="16"/>
+    <n v="70"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="45"/>
+    <n v="10"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Mango Pineapple Smoothie (Large)"/>
+    <s v="22 fl oz cup"/>
+    <n v="340"/>
+    <n v="10"/>
+    <n v="1"/>
+    <x v="58"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="60"/>
+    <n v="3"/>
+    <n v="78"/>
+    <n v="26"/>
+    <n v="2"/>
+    <n v="6"/>
+    <n v="72"/>
+    <n v="4"/>
+    <n v="50"/>
+    <n v="30"/>
+    <n v="10"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Blueberry Pomegranate Smoothie (Large)"/>
+    <s v="22 fl oz cup"/>
+    <n v="340"/>
+    <n v="10"/>
+    <n v="1"/>
+    <x v="58"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="65"/>
+    <n v="3"/>
+    <n v="79"/>
+    <n v="26"/>
+    <n v="5"/>
+    <n v="19"/>
+    <n v="70"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="10"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Iced Coffee with Sugar Free French Vanilla Syrup (Small)"/>
+    <s v="16 fl oz cup"/>
+    <n v="80"/>
+    <n v="40"/>
+    <n v="45"/>
+    <x v="48"/>
+    <n v="3"/>
+    <n v="15"/>
+    <n v="0"/>
+    <n v="15"/>
+    <n v="6"/>
+    <n v="65"/>
+    <n v="3"/>
+    <n v="9"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="French Vanilla Iced Coffee (Small)"/>
+    <s v="16 fl oz cup"/>
+    <n v="120"/>
+    <n v="40"/>
+    <n v="45"/>
+    <x v="48"/>
+    <n v="3"/>
+    <n v="15"/>
+    <n v="0"/>
+    <n v="15"/>
+    <n v="6"/>
+    <n v="40"/>
+    <n v="2"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="19"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Hazelnut Iced Coffee (Small)"/>
+    <s v="16 fl oz cup"/>
+    <n v="130"/>
+    <n v="40"/>
+    <n v="45"/>
+    <x v="48"/>
+    <n v="3"/>
+    <n v="15"/>
+    <n v="0"/>
+    <n v="15"/>
+    <n v="6"/>
+    <n v="35"/>
+    <n v="1"/>
+    <n v="21"/>
+    <n v="7"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="20"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Caramel Iced Coffee (Small)"/>
+    <s v="16 fl oz cup"/>
+    <n v="130"/>
+    <n v="40"/>
+    <n v="45"/>
+    <x v="48"/>
+    <n v="3"/>
+    <n v="15"/>
+    <n v="0"/>
+    <n v="15"/>
+    <n v="6"/>
+    <n v="35"/>
+    <n v="2"/>
+    <n v="22"/>
+    <n v="7"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="21"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Regular Iced Coffee (Small)"/>
+    <s v="16 fl oz cup"/>
+    <n v="140"/>
+    <n v="40"/>
+    <n v="45"/>
+    <x v="48"/>
+    <n v="3"/>
+    <n v="15"/>
+    <n v="0"/>
+    <n v="15"/>
+    <n v="6"/>
+    <n v="35"/>
+    <n v="1"/>
+    <n v="23"/>
+    <n v="8"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="22"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Iced Nonfat Caramel Mocha (Small)"/>
+    <s v="12 fl oz cup"/>
+    <n v="230"/>
+    <n v="45"/>
+    <n v="5"/>
+    <x v="49"/>
+    <n v="3"/>
+    <n v="16"/>
+    <n v="0"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="140"/>
+    <n v="6"/>
+    <n v="38"/>
+    <n v="13"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="33"/>
+    <n v="8"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="25"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Iced Mocha with Nonfat Milk (Small)"/>
+    <s v="12 fl oz cup"/>
+    <n v="240"/>
+    <n v="45"/>
+    <n v="5"/>
+    <x v="49"/>
+    <n v="3"/>
+    <n v="16"/>
+    <n v="0"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="125"/>
+    <n v="5"/>
+    <n v="41"/>
+    <n v="14"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="35"/>
+    <n v="8"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="25"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Hot Caramel Sundae"/>
+    <s v="6.4 oz (182 g)"/>
+    <n v="340"/>
+    <n v="70"/>
+    <n v="8"/>
+    <x v="2"/>
+    <n v="5"/>
+    <n v="24"/>
+    <n v="0"/>
+    <n v="30"/>
+    <n v="10"/>
+    <n v="150"/>
+    <n v="6"/>
+    <n v="60"/>
+    <n v="20"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="43"/>
+    <n v="7"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="25"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Strawberry Sundae"/>
+    <s v="6.3 oz (178 g)"/>
+    <n v="280"/>
+    <n v="60"/>
+    <n v="6"/>
+    <x v="59"/>
+    <n v="4"/>
+    <n v="20"/>
+    <n v="0"/>
+    <n v="25"/>
+    <n v="8"/>
+    <n v="85"/>
+    <n v="4"/>
+    <n v="49"/>
+    <n v="16"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="45"/>
+    <n v="6"/>
+    <n v="8"/>
+    <n v="4"/>
+    <n v="20"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Iced Nonfat Caramel Mocha (Medium)"/>
+    <s v="16 fl oz cup"/>
+    <n v="270"/>
+    <n v="45"/>
+    <n v="5"/>
+    <x v="49"/>
+    <n v="3"/>
+    <n v="16"/>
+    <n v="0"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="170"/>
+    <n v="7"/>
+    <n v="47"/>
+    <n v="16"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="41"/>
+    <n v="10"/>
+    <n v="15"/>
+    <n v="0"/>
+    <n v="30"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Nonfat Caramel Mocha (Small)"/>
+    <s v="12 fl oz cup"/>
+    <n v="250"/>
+    <n v="30"/>
+    <n v="35"/>
+    <x v="60"/>
+    <n v="2"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="15"/>
+    <n v="5"/>
+    <n v="170"/>
+    <n v="7"/>
+    <n v="45"/>
+    <n v="15"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="41"/>
+    <n v="10"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="35"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Mocha with Nonfat Milk (Small)"/>
+    <s v="12 fl oz cup"/>
+    <n v="270"/>
+    <n v="30"/>
+    <n v="35"/>
+    <x v="60"/>
+    <n v="2"/>
+    <n v="11"/>
+    <n v="0"/>
+    <n v="15"/>
+    <n v="5"/>
+    <n v="150"/>
+    <n v="6"/>
+    <n v="49"/>
+    <n v="16"/>
+    <n v="2"/>
+    <n v="6"/>
+    <n v="43"/>
+    <n v="11"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="35"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Hot Chocolate with Nonfat Milk (Small)"/>
+    <s v="12 fl oz cup"/>
+    <n v="280"/>
+    <n v="30"/>
+    <n v="35"/>
+    <x v="60"/>
+    <n v="2"/>
+    <n v="11"/>
+    <n v="0"/>
+    <n v="15"/>
+    <n v="5"/>
+    <n v="180"/>
+    <n v="7"/>
+    <n v="50"/>
+    <n v="17"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="46"/>
+    <n v="12"/>
+    <n v="15"/>
+    <n v="0"/>
+    <n v="40"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Nonfat Caramel Mocha (Medium)"/>
+    <s v="16 fl oz cup"/>
+    <n v="310"/>
+    <n v="30"/>
+    <n v="35"/>
+    <x v="60"/>
+    <n v="2"/>
+    <n v="11"/>
+    <n v="0"/>
+    <n v="15"/>
+    <n v="5"/>
+    <n v="210"/>
+    <n v="9"/>
+    <n v="56"/>
+    <n v="19"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="51"/>
+    <n v="13"/>
+    <n v="15"/>
+    <n v="0"/>
+    <n v="40"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Mocha with Nonfat Milk (Medium)"/>
+    <s v="16 fl oz cup"/>
+    <n v="330"/>
+    <n v="30"/>
+    <n v="35"/>
+    <x v="47"/>
+    <n v="2"/>
+    <n v="11"/>
+    <n v="0"/>
+    <n v="15"/>
+    <n v="5"/>
+    <n v="190"/>
+    <n v="8"/>
+    <n v="60"/>
+    <n v="20"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="53"/>
+    <n v="13"/>
+    <n v="15"/>
+    <n v="0"/>
+    <n v="40"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Hot Chocolate with Nonfat Milk (Medium)"/>
+    <s v="16 fl oz cup"/>
+    <n v="340"/>
+    <n v="30"/>
+    <n v="35"/>
+    <x v="60"/>
+    <n v="2"/>
+    <n v="11"/>
+    <n v="0"/>
+    <n v="15"/>
+    <n v="6"/>
+    <n v="220"/>
+    <n v="9"/>
+    <n v="61"/>
+    <n v="20"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="57"/>
+    <n v="14"/>
+    <n v="20"/>
+    <n v="0"/>
+    <n v="50"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Iced Tea (Small)"/>
+    <s v="16 fl oz cup"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="52"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Iced Tea (Medium)"/>
+    <s v="21 fl oz cup"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="52"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Iced Tea (Large)"/>
+    <s v="30 fl oz cup"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="52"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="15"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="1% Low Fat Milk Jug"/>
+    <s v="1 carton (236 ml)"/>
+    <n v="100"/>
+    <n v="20"/>
+    <n v="25"/>
+    <x v="61"/>
+    <n v="15"/>
+    <n v="8"/>
+    <n v="0"/>
+    <n v="10"/>
+    <n v="3"/>
+    <n v="125"/>
+    <n v="5"/>
+    <n v="12"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="12"/>
+    <n v="8"/>
+    <n v="10"/>
+    <n v="4"/>
+    <n v="30"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Kids Ice Cream Cone"/>
+    <s v="1 oz (29 g)"/>
+    <n v="45"/>
+    <n v="10"/>
+    <n v="15"/>
+    <x v="58"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="20"/>
+    <n v="1"/>
+    <n v="7"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="6"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Apple Slices"/>
+    <s v="1.2 oz (34 g)"/>
+    <n v="15"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="52"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="160"/>
+    <n v="2"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Coca-Cola Classic (Small)"/>
+    <s v="16 fl oz cup"/>
+    <n v="140"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="52"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="39"/>
+    <n v="13"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="39"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Coca-Cola Classic (Medium)"/>
+    <s v="21 fl oz cup"/>
+    <n v="200"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="52"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="55"/>
+    <n v="18"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="55"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Coca-Cola Classic (Large)"/>
+    <s v="30 fl oz cup"/>
+    <n v="280"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="52"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="76"/>
+    <n v="25"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="76"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Coca-Cola Classic (Child)"/>
+    <s v="12 fl oz cup"/>
+    <n v="100"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="52"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="28"/>
+    <n v="9"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="28"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Diet Coke (Small)"/>
+    <s v="16 fl oz cup"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="52"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Diet Coke (Medium)"/>
+    <s v="21 fl oz cup"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="52"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="20"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Diet Coke (Large)"/>
+    <s v="30 fl oz cup"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="52"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="35"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Diet Coke (Child)"/>
+    <s v="12 fl oz cup"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="52"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="15"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Dr Pepper (Small)"/>
+    <s v="16 fl oz cup"/>
+    <n v="140"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="52"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="45"/>
+    <n v="2"/>
+    <n v="37"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="35"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Dr Pepper (Medium)"/>
+    <s v="21 fl oz cup"/>
+    <n v="190"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="52"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="65"/>
+    <n v="3"/>
+    <n v="53"/>
+    <n v="18"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="51"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Dr Pepper (Large)"/>
+    <s v="30 fl oz cup"/>
+    <n v="270"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="52"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="90"/>
+    <n v="4"/>
+    <n v="72"/>
+    <n v="24"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="70"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Dr Pepper (Child)"/>
+    <s v="12 fl oz cup"/>
+    <n v="100"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="52"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="30"/>
+    <n v="1"/>
+    <n v="27"/>
+    <n v="9"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="26"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Diet Dr Pepper (Small)"/>
+    <s v="16 fl oz cup"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="52"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="70"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Diet Dr Pepper (Medium)"/>
+    <s v="21 fl oz cup"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="52"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="100"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Diet Dr Pepper (Large)"/>
+    <s v="30 fl oz cup"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="52"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="140"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Diet Dr Pepper (Child)"/>
+    <s v="12 fl oz cup"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="52"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="50"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Sprite (Small)"/>
+    <s v="16 fl oz cup"/>
+    <n v="140"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="52"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="30"/>
+    <n v="1"/>
+    <n v="37"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="37"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Sprite (Medium)"/>
+    <s v="21 fl oz cup"/>
+    <n v="200"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="52"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="45"/>
+    <n v="2"/>
+    <n v="54"/>
+    <n v="18"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="54"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Sprite (Large)"/>
+    <s v="30 fl oz cup"/>
+    <n v="280"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="52"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="60"/>
+    <n v="3"/>
+    <n v="74"/>
+    <n v="25"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="74"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Sprite (Child)"/>
+    <s v="12 fl oz cup"/>
+    <n v="100"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="52"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="25"/>
+    <n v="1"/>
+    <n v="27"/>
+    <n v="9"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="27"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Minute Maid 100% Apple Juice Box"/>
+    <s v="6 fl oz (177 ml)"/>
+    <n v="80"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="52"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="15"/>
+    <n v="1"/>
+    <n v="21"/>
+    <n v="7"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="19"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="100"/>
+    <n v="10"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Minute Maid Orange Juice (Small)"/>
+    <s v="12 fl oz cup"/>
+    <n v="150"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="52"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="34"/>
+    <n v="11"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="30"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="130"/>
+    <n v="2"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Minute Maid Orange Juice (Medium)"/>
+    <s v="16 fl oz cup"/>
+    <n v="190"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="52"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="44"/>
+    <n v="15"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="39"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="160"/>
+    <n v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Minute Maid Orange Juice (Large)"/>
+    <s v="22 fl oz cup"/>
+    <n v="280"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="52"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="65"/>
+    <n v="22"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="58"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="240"/>
+    <n v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Dasani Water Bottle"/>
+    <s v="16.9 fl oz"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="52"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Iced Tea (Child)"/>
+    <s v="12 fl oz cup"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="52"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Coffee (Small)"/>
+    <s v="12 fl oz cup"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="52"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Coffee (Medium)"/>
+    <s v="16 fl oz cup"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="52"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Coffee (Large)"/>
+    <s v="16 fl oz cup"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="52"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Nonfat Latte (Small)"/>
+    <s v="12 fl oz cup"/>
+    <n v="100"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="52"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="110"/>
+    <n v="5"/>
+    <n v="15"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="13"/>
+    <n v="10"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="30"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Nonfat Latte (Medium)"/>
+    <s v="16 fl oz cup"/>
+    <n v="130"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="52"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="135"/>
+    <n v="6"/>
+    <n v="19"/>
+    <n v="6"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="16"/>
+    <n v="12"/>
+    <n v="15"/>
+    <n v="0"/>
+    <n v="40"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Nonfat Latte with Sugar Free French Vanilla Syrup (Small)"/>
+    <s v="12 fl oz cup"/>
+    <n v="140"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="52"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="150"/>
+    <n v="6"/>
+    <n v="24"/>
+    <n v="8"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="13"/>
+    <n v="10"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="30"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Nonfat Latte (Large)"/>
+    <s v="20 fl oz cup"/>
+    <n v="170"/>
+    <n v="0"/>
+    <n v="5"/>
+    <x v="62"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="10"/>
+    <n v="3"/>
+    <n v="180"/>
+    <n v="7"/>
+    <n v="25"/>
+    <n v="8"/>
+    <n v="1"/>
+    <n v="6"/>
+    <n v="21"/>
+    <n v="16"/>
+    <n v="15"/>
+    <n v="0"/>
+    <n v="50"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Sweet Tea (Child)"/>
+    <s v="12 fl oz cup"/>
+    <n v="110"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="52"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="27"/>
+    <n v="9"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="27"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Nonfat Latte with Sugar Free French Vanilla Syrup (Medium)"/>
+    <s v="16 fl oz cup"/>
+    <n v="170"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="52"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="180"/>
+    <n v="8"/>
+    <n v="30"/>
+    <n v="10"/>
+    <n v="1"/>
+    <n v="5"/>
+    <n v="16"/>
+    <n v="12"/>
+    <n v="15"/>
+    <n v="0"/>
+    <n v="40"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Sweet Tea (Small)"/>
+    <s v="16 fl oz cup"/>
+    <n v="150"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="52"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="36"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="36"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Nonfat Latte with Sugar Free French Vanilla Syrup (Large)"/>
+    <s v="20 fl oz cup"/>
+    <n v="220"/>
+    <n v="0"/>
+    <n v="5"/>
+    <x v="62"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="10"/>
+    <n v="3"/>
+    <n v="240"/>
+    <n v="10"/>
+    <n v="38"/>
+    <n v="13"/>
+    <n v="2"/>
+    <n v="7"/>
+    <n v="21"/>
+    <n v="16"/>
+    <n v="15"/>
+    <n v="0"/>
+    <n v="50"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Nonfat French Vanilla Latte (Small)"/>
+    <s v="12 fl oz cup"/>
+    <n v="190"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="52"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="115"/>
+    <n v="5"/>
+    <n v="39"/>
+    <n v="13"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="37"/>
+    <n v="10"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="30"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Nonfat Hazelnut Latte (Small)"/>
+    <s v="12 fl oz cup"/>
+    <n v="200"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="52"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="110"/>
+    <n v="5"/>
+    <n v="40"/>
+    <n v="13"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="38"/>
+    <n v="10"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="30"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Nonfat Caramel Latte (Small)"/>
+    <s v="12 fl oz cup"/>
+    <n v="200"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="52"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="110"/>
+    <n v="5"/>
+    <n v="41"/>
+    <n v="14"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="39"/>
+    <n v="10"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="30"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Sweet Tea (Medium)"/>
+    <s v="21 fl oz cup"/>
+    <n v="180"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="52"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="45"/>
+    <n v="15"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="45"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Strawberry Banana Smoothie (Small)"/>
+    <s v="12 fl oz cup"/>
+    <n v="210"/>
+    <n v="5"/>
+    <n v="5"/>
+    <x v="62"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="50"/>
+    <n v="2"/>
+    <n v="47"/>
+    <n v="16"/>
+    <n v="3"/>
+    <n v="10"/>
+    <n v="44"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="30"/>
+    <n v="8"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Nonfat French Vanilla Latte (Medium)"/>
+    <s v="16 fl oz cup"/>
+    <n v="240"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="52"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="140"/>
+    <n v="6"/>
+    <n v="49"/>
+    <n v="16"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="46"/>
+    <n v="12"/>
+    <n v="15"/>
+    <n v="0"/>
+    <n v="40"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Mango Pineapple Smoothie (Small)"/>
+    <s v="12 fl oz cup"/>
+    <n v="210"/>
+    <n v="5"/>
+    <n v="5"/>
+    <x v="62"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="40"/>
+    <n v="2"/>
+    <n v="50"/>
+    <n v="17"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="46"/>
+    <n v="2"/>
+    <n v="30"/>
+    <n v="20"/>
+    <n v="8"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Blueberry Pomegranate Smoothie (Small)"/>
+    <s v="12 fl oz cup"/>
+    <n v="220"/>
+    <n v="5"/>
+    <n v="5"/>
+    <x v="62"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="40"/>
+    <n v="2"/>
+    <n v="50"/>
+    <n v="17"/>
+    <n v="3"/>
+    <n v="12"/>
+    <n v="44"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="6"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Nonfat Caramel Latte (Medium)"/>
+    <s v="16 fl oz cup"/>
+    <n v="250"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="52"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="135"/>
+    <n v="6"/>
+    <n v="51"/>
+    <n v="17"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="48"/>
+    <n v="12"/>
+    <n v="15"/>
+    <n v="0"/>
+    <n v="40"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Nonfat Hazelnut Latte (Medium)"/>
+    <s v="16 fl oz cup"/>
+    <n v="250"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="52"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="135"/>
+    <n v="6"/>
+    <n v="51"/>
+    <n v="17"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="48"/>
+    <n v="12"/>
+    <n v="15"/>
+    <n v="0"/>
+    <n v="40"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Sweet Tea (Large)"/>
+    <s v="30 fl oz cup"/>
+    <n v="220"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="52"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="10"/>
+    <n v="1"/>
+    <n v="54"/>
+    <n v="18"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="54"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Strawberry Banana Smoothie (Medium)"/>
+    <s v="16 fl oz cup"/>
+    <n v="250"/>
+    <n v="5"/>
+    <n v="1"/>
+    <x v="62"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="60"/>
+    <n v="2"/>
+    <n v="58"/>
+    <n v="19"/>
+    <n v="3"/>
+    <n v="13"/>
+    <n v="54"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="35"/>
+    <n v="8"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Nonfat French Vanilla Latte (Large)"/>
+    <s v="20 fl oz cup"/>
+    <n v="300"/>
+    <n v="0"/>
+    <n v="5"/>
+    <x v="62"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="10"/>
+    <n v="3"/>
+    <n v="180"/>
+    <n v="8"/>
+    <n v="60"/>
+    <n v="20"/>
+    <n v="1"/>
+    <n v="6"/>
+    <n v="56"/>
+    <n v="16"/>
+    <n v="15"/>
+    <n v="0"/>
+    <n v="50"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Mango Pineapple Smoothie (Medium)"/>
+    <s v="16 fl oz cup"/>
+    <n v="260"/>
+    <n v="10"/>
+    <n v="1"/>
+    <x v="62"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="45"/>
+    <n v="2"/>
+    <n v="61"/>
+    <n v="20"/>
+    <n v="1"/>
+    <n v="5"/>
+    <n v="56"/>
+    <n v="3"/>
+    <n v="40"/>
+    <n v="25"/>
+    <n v="8"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Blueberry Pomegranate Smoothie (Medium)"/>
+    <s v="16 fl oz cup"/>
+    <n v="260"/>
+    <n v="5"/>
+    <n v="1"/>
+    <x v="62"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="50"/>
+    <n v="2"/>
+    <n v="62"/>
+    <n v="21"/>
+    <n v="4"/>
+    <n v="15"/>
+    <n v="54"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="8"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Nonfat Caramel Latte (Large)"/>
+    <s v="20 fl oz cup"/>
+    <n v="310"/>
+    <n v="0"/>
+    <n v="5"/>
+    <x v="62"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="10"/>
+    <n v="3"/>
+    <n v="180"/>
+    <n v="7"/>
+    <n v="63"/>
+    <n v="21"/>
+    <n v="1"/>
+    <n v="6"/>
+    <n v="59"/>
+    <n v="16"/>
+    <n v="15"/>
+    <n v="0"/>
+    <n v="50"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Nonfat Hazelnut Latte (Large)"/>
+    <s v="20 fl oz cup"/>
+    <n v="310"/>
+    <n v="0"/>
+    <n v="5"/>
+    <x v="62"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="10"/>
+    <n v="3"/>
+    <n v="180"/>
+    <n v="7"/>
+    <n v="63"/>
+    <n v="21"/>
+    <n v="1"/>
+    <n v="6"/>
+    <n v="59"/>
+    <n v="16"/>
+    <n v="15"/>
+    <n v="0"/>
+    <n v="50"/>
+    <n v="2"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C4ED1911-7B8F-4A5A-A9BE-8EE895E514A5}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:D11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="24">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="1"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="64">
+        <item x="52"/>
+        <item x="62"/>
+        <item x="58"/>
+        <item x="54"/>
+        <item x="61"/>
+        <item x="60"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="59"/>
+        <item x="36"/>
+        <item x="2"/>
+        <item x="32"/>
+        <item x="51"/>
+        <item x="31"/>
+        <item x="57"/>
+        <item x="55"/>
+        <item x="3"/>
+        <item x="53"/>
+        <item x="44"/>
+        <item x="56"/>
+        <item x="30"/>
+        <item x="45"/>
+        <item x="33"/>
+        <item x="4"/>
+        <item x="29"/>
+        <item x="28"/>
+        <item x="37"/>
+        <item x="41"/>
+        <item x="27"/>
+        <item x="5"/>
+        <item x="26"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="40"/>
+        <item x="35"/>
+        <item x="39"/>
+        <item x="19"/>
+        <item x="18"/>
+        <item x="17"/>
+        <item x="25"/>
+        <item x="20"/>
+        <item x="24"/>
+        <item x="23"/>
+        <item x="9"/>
+        <item x="16"/>
+        <item x="22"/>
+        <item x="11"/>
+        <item x="21"/>
+        <item x="43"/>
+        <item x="34"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="46"/>
+        <item x="1"/>
+        <item x="15"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Average of Total Fat (% Daily Value)" fld="6" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Average of Saturated Fat (% Daily Value)" fld="8" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Average of Cholesterol (% Daily Value)" fld="11" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1412,9 +8576,9 @@
     <sortCondition ref="O2:O261"/>
   </sortState>
   <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{DAB652B6-7D20-4A1C-92FC-8FBC8D7619E3}" uniqueName="1" name="Category" queryTableFieldId="1" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{B590904B-698F-4F16-AF98-C87F628E5EFC}" uniqueName="2" name="Item" queryTableFieldId="2" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{DD7CDBA2-0B94-42F6-AFB7-974D0B3AC002}" uniqueName="3" name="Serving Size" queryTableFieldId="3" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{DAB652B6-7D20-4A1C-92FC-8FBC8D7619E3}" uniqueName="1" name="Category" queryTableFieldId="1" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{B590904B-698F-4F16-AF98-C87F628E5EFC}" uniqueName="2" name="Item" queryTableFieldId="2" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{DD7CDBA2-0B94-42F6-AFB7-974D0B3AC002}" uniqueName="3" name="Serving Size" queryTableFieldId="3" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{7FD3409C-5BF4-4F3F-B557-4C70927C2A4C}" uniqueName="4" name="Calories" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{4EB63347-4E78-4F70-B16E-A7900039931B}" uniqueName="5" name="Calories from Fat" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{0D0936C9-B2E6-4E0A-8093-4E9860D61789}" uniqueName="6" name="Total Fat" queryTableFieldId="6"/>
@@ -1446,7 +8610,7 @@
   <autoFilter ref="A1:C9" xr:uid="{6C9571B0-38A2-4B9A-A957-A6191E02D9E1}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{FF78DE00-B33B-409A-80A2-405F2A54825B}" name="Calculation"/>
-    <tableColumn id="2" xr3:uid="{7E7D11BD-99BB-4CFF-8E07-C83C9A29D8BE}" name="Value" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{7E7D11BD-99BB-4CFF-8E07-C83C9A29D8BE}" name="Value" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{E07A05AB-9397-4557-AF3A-EB7163D0917D}" name="Unit"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1729,7 +8893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E285663B-15D6-4E70-A204-8DD9269A72BB}">
   <dimension ref="A1:X261"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
+    <sheetView topLeftCell="A243" workbookViewId="0">
       <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
@@ -21088,8 +28252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21247,6 +28411,207 @@
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD4F110B-6EA9-4D7B-BAAB-BEF9672982EB}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="33" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="37" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="43" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="49" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="53" max="62" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="63" max="64" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="10.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="4">
+        <v>38.6</v>
+      </c>
+      <c r="C2" s="4">
+        <v>52</v>
+      </c>
+      <c r="D2" s="4">
+        <v>28.933333333333334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.14814814814814814</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.29629629629629628</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.18518518518518517</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="4">
+        <v>42.666666666666664</v>
+      </c>
+      <c r="C4" s="4">
+        <v>53.428571428571431</v>
+      </c>
+      <c r="D4" s="4">
+        <v>50.952380952380949</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="4">
+        <v>41.333333333333336</v>
+      </c>
+      <c r="C5" s="4">
+        <v>31.111111111111111</v>
+      </c>
+      <c r="D5" s="4">
+        <v>25.222222222222221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B6" s="4">
+        <v>12.357894736842105</v>
+      </c>
+      <c r="C6" s="4">
+        <v>24.368421052631579</v>
+      </c>
+      <c r="D6" s="4">
+        <v>9.378947368421052</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B7" s="4">
+        <v>11.142857142857142</v>
+      </c>
+      <c r="C7" s="4">
+        <v>21.285714285714285</v>
+      </c>
+      <c r="D7" s="4">
+        <v>4.8571428571428568</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" s="4">
+        <v>18.333333333333332</v>
+      </c>
+      <c r="C8" s="4">
+        <v>18.5</v>
+      </c>
+      <c r="D8" s="4">
+        <v>17.333333333333332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B9" s="4">
+        <v>21.714285714285715</v>
+      </c>
+      <c r="C9" s="4">
+        <v>41.785714285714285</v>
+      </c>
+      <c r="D9" s="4">
+        <v>14.714285714285714</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B10" s="4">
+        <v>16.23076923076923</v>
+      </c>
+      <c r="C10" s="4">
+        <v>13.384615384615385</v>
+      </c>
+      <c r="D10" s="4">
+        <v>6.2307692307692308</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="B11" s="4">
+        <v>21.815384615384616</v>
+      </c>
+      <c r="C11" s="4">
+        <v>29.965384615384615</v>
+      </c>
+      <c r="D11" s="4">
+        <v>18.392307692307693</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/excel/files_10_data_analysis_solutions/exercise01/menu.xlsx
+++ b/excel/files_10_data_analysis_solutions/exercise01/menu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hanzenl-my.sharepoint.com/personal/j_hageman_pl_hanze_nl/Documents/web_pages/data_analysis2/data_analysis/excel/files_10_data_analysis_solutions/exercise01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{BF7ED34A-038F-48A3-B89F-0B5826EC06B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54F12845-897A-45B1-8077-7BE3C9343052}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="13_ncr:1_{BF7ED34A-038F-48A3-B89F-0B5826EC06B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3863DB3-29C7-4487-AA25-B6D3A5749CEF}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1365,9 +1365,77 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <font>
+        <strike val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
@@ -8349,7 +8417,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C4ED1911-7B8F-4A5A-A9BE-8EE895E514A5}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C4ED1911-7B8F-4A5A-A9BE-8EE895E514A5}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:D11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="24">
     <pivotField axis="axisRow" showAll="0">
@@ -8512,7 +8580,7 @@
     <dataField name="Average of Cholesterol (% Daily Value)" fld="11" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="1">
+    <format dxfId="7">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -8576,9 +8644,9 @@
     <sortCondition ref="O2:O261"/>
   </sortState>
   <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{DAB652B6-7D20-4A1C-92FC-8FBC8D7619E3}" uniqueName="1" name="Category" queryTableFieldId="1" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{B590904B-698F-4F16-AF98-C87F628E5EFC}" uniqueName="2" name="Item" queryTableFieldId="2" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{DD7CDBA2-0B94-42F6-AFB7-974D0B3AC002}" uniqueName="3" name="Serving Size" queryTableFieldId="3" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{DAB652B6-7D20-4A1C-92FC-8FBC8D7619E3}" uniqueName="1" name="Category" queryTableFieldId="1" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{B590904B-698F-4F16-AF98-C87F628E5EFC}" uniqueName="2" name="Item" queryTableFieldId="2" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{DD7CDBA2-0B94-42F6-AFB7-974D0B3AC002}" uniqueName="3" name="Serving Size" queryTableFieldId="3" dataDxfId="9"/>
     <tableColumn id="4" xr3:uid="{7FD3409C-5BF4-4F3F-B557-4C70927C2A4C}" uniqueName="4" name="Calories" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{4EB63347-4E78-4F70-B16E-A7900039931B}" uniqueName="5" name="Calories from Fat" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{0D0936C9-B2E6-4E0A-8093-4E9860D61789}" uniqueName="6" name="Total Fat" queryTableFieldId="6"/>
@@ -8610,7 +8678,7 @@
   <autoFilter ref="A1:C9" xr:uid="{6C9571B0-38A2-4B9A-A957-A6191E02D9E1}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{FF78DE00-B33B-409A-80A2-405F2A54825B}" name="Calculation"/>
-    <tableColumn id="2" xr3:uid="{7E7D11BD-99BB-4CFF-8E07-C83C9A29D8BE}" name="Value" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{7E7D11BD-99BB-4CFF-8E07-C83C9A29D8BE}" name="Value" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{E07A05AB-9397-4557-AF3A-EB7163D0917D}" name="Unit"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -8893,8 +8961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E285663B-15D6-4E70-A204-8DD9269A72BB}">
   <dimension ref="A1:X261"/>
   <sheetViews>
-    <sheetView topLeftCell="A243" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView tabSelected="1" topLeftCell="P255" workbookViewId="0">
+      <selection activeCell="V265" sqref="V265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28240,6 +28308,24 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D2:D261">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="greaterThan">
+      <formula>600</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50:B261">
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U2:V261">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
+      <formula>20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:V1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
+      <formula>20</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -28418,7 +28504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD4F110B-6EA9-4D7B-BAAB-BEF9672982EB}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
